--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U429"/>
+  <dimension ref="A1:U430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15998,112 +15998,128 @@
       <c r="U295" s="2" t="inlineStr"/>
     </row>
     <row r="296">
-      <c r="A296" s="2" t="inlineStr">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:050354 </t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>prescribing behaviour</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing!</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>providing healthcare</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="inlineStr"/>
+      <c r="O296" t="inlineStr"/>
+      <c r="P296" t="inlineStr"/>
+      <c r="Q296" t="inlineStr"/>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="S296" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="B296" s="2" t="inlineStr">
-        <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
-      <c r="C296" s="2" t="inlineStr">
+      <c r="T296" t="inlineStr"/>
+      <c r="U296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>prescribing behaviour1</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
         <is>
           <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
         </is>
       </c>
-      <c r="D296" s="2" t="inlineStr"/>
-      <c r="E296" s="2" t="inlineStr"/>
-      <c r="F296" s="2" t="inlineStr">
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" t="inlineStr">
         <is>
           <t>Providing healthcare</t>
         </is>
       </c>
-      <c r="G296" s="2" t="inlineStr">
+      <c r="G297" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H296" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I296" s="2" t="inlineStr"/>
-      <c r="J296" s="2" t="inlineStr"/>
-      <c r="K296" s="2" t="inlineStr"/>
-      <c r="L296" s="2" t="inlineStr"/>
-      <c r="M296" s="2" t="inlineStr"/>
-      <c r="N296" s="2" t="inlineStr"/>
-      <c r="O296" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P296" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q296" s="2" t="inlineStr"/>
-      <c r="R296" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="S296" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T296" s="2" t="inlineStr"/>
-      <c r="U296" s="2" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="2" t="inlineStr"/>
-      <c r="B297" s="2" t="inlineStr">
-        <is>
-          <t>prescription opioid abuse</t>
-        </is>
-      </c>
-      <c r="C297" s="2" t="inlineStr"/>
-      <c r="D297" s="2" t="inlineStr"/>
-      <c r="E297" s="2" t="inlineStr"/>
-      <c r="F297" s="2" t="inlineStr"/>
-      <c r="G297" s="2" t="inlineStr"/>
-      <c r="H297" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I297" s="2" t="inlineStr"/>
-      <c r="J297" s="2" t="inlineStr"/>
-      <c r="K297" s="2" t="inlineStr"/>
-      <c r="L297" s="2" t="inlineStr"/>
-      <c r="M297" s="2" t="inlineStr"/>
-      <c r="N297" s="2" t="inlineStr"/>
-      <c r="O297" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P297" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q297" s="2" t="inlineStr"/>
-      <c r="R297" s="2" t="inlineStr"/>
-      <c r="S297" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T297" s="2" t="inlineStr"/>
-      <c r="U297" s="2" t="inlineStr"/>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="inlineStr"/>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Q297" t="inlineStr"/>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>RW; BG</t>
+        </is>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr"/>
+      <c r="U297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr"/>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>prescription opioid misuse</t>
+          <t>prescription opioid abuse</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr"/>
@@ -16146,7 +16162,7 @@
       <c r="A299" s="2" t="inlineStr"/>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>problem behaviour</t>
+          <t>prescription opioid misuse</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr"/>
@@ -16189,7 +16205,7 @@
       <c r="A300" s="2" t="inlineStr"/>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>problem drinking</t>
+          <t>problem behaviour</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr"/>
@@ -16229,28 +16245,16 @@
       <c r="U300" s="2" t="inlineStr"/>
     </row>
     <row r="301">
-      <c r="A301" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000642</t>
-        </is>
-      </c>
+      <c r="A301" s="2" t="inlineStr"/>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>product demand</t>
-        </is>
-      </c>
-      <c r="C301" s="2" t="inlineStr">
-        <is>
-          <t>A population attribute that involves the amount of a product that a population uses.</t>
-        </is>
-      </c>
+          <t>problem drinking</t>
+        </is>
+      </c>
+      <c r="C301" s="2" t="inlineStr"/>
       <c r="D301" s="2" t="inlineStr"/>
       <c r="E301" s="2" t="inlineStr"/>
-      <c r="F301" s="2" t="inlineStr">
-        <is>
-          <t>population attribute</t>
-        </is>
-      </c>
+      <c r="F301" s="2" t="inlineStr"/>
       <c r="G301" s="2" t="inlineStr"/>
       <c r="H301" s="2" t="inlineStr">
         <is>
@@ -16261,14 +16265,12 @@
       <c r="J301" s="2" t="inlineStr"/>
       <c r="K301" s="2" t="inlineStr"/>
       <c r="L301" s="2" t="inlineStr"/>
-      <c r="M301" s="2" t="inlineStr">
-        <is>
-          <t>It would normally be necessary to specify the population, the product and the conditions that create the demand.</t>
-        </is>
-      </c>
+      <c r="M301" s="2" t="inlineStr"/>
       <c r="N301" s="2" t="inlineStr"/>
-      <c r="O301" s="2" t="n">
-        <v>1</v>
+      <c r="O301" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P301" s="2" t="inlineStr">
         <is>
@@ -16276,11 +16278,7 @@
         </is>
       </c>
       <c r="Q301" s="2" t="inlineStr"/>
-      <c r="R301" s="2" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="R301" s="2" t="inlineStr"/>
       <c r="S301" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -16290,124 +16288,142 @@
       <c r="U301" s="2" t="inlineStr"/>
     </row>
     <row r="302">
-      <c r="A302" s="3" t="inlineStr">
+      <c r="A302" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000642</t>
+        </is>
+      </c>
+      <c r="B302" s="2" t="inlineStr">
+        <is>
+          <t>product demand</t>
+        </is>
+      </c>
+      <c r="C302" s="2" t="inlineStr">
+        <is>
+          <t>A population attribute that involves the amount of a product that a population uses.</t>
+        </is>
+      </c>
+      <c r="D302" s="2" t="inlineStr"/>
+      <c r="E302" s="2" t="inlineStr"/>
+      <c r="F302" s="2" t="inlineStr">
+        <is>
+          <t>population attribute</t>
+        </is>
+      </c>
+      <c r="G302" s="2" t="inlineStr"/>
+      <c r="H302" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I302" s="2" t="inlineStr"/>
+      <c r="J302" s="2" t="inlineStr"/>
+      <c r="K302" s="2" t="inlineStr"/>
+      <c r="L302" s="2" t="inlineStr"/>
+      <c r="M302" s="2" t="inlineStr">
+        <is>
+          <t>It would normally be necessary to specify the population, the product and the conditions that create the demand.</t>
+        </is>
+      </c>
+      <c r="N302" s="2" t="inlineStr"/>
+      <c r="O302" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P302" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q302" s="2" t="inlineStr"/>
+      <c r="R302" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S302" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T302" s="2" t="inlineStr"/>
+      <c r="U302" s="2" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000137</t>
         </is>
       </c>
-      <c r="B302" s="3" t="inlineStr">
+      <c r="B303" s="3" t="inlineStr">
         <is>
           <t>product use behaviour</t>
         </is>
       </c>
-      <c r="C302" s="3" t="inlineStr">
+      <c r="C303" s="3" t="inlineStr">
         <is>
           <t>Object-using behaviour that involves use of a product.</t>
         </is>
       </c>
-      <c r="D302" s="3" t="inlineStr"/>
-      <c r="E302" s="3" t="inlineStr"/>
-      <c r="F302" s="3" t="inlineStr">
+      <c r="D303" s="3" t="inlineStr"/>
+      <c r="E303" s="3" t="inlineStr"/>
+      <c r="F303" s="3" t="inlineStr">
         <is>
           <t>object-using behaviour</t>
         </is>
       </c>
-      <c r="G302" s="3" t="inlineStr">
+      <c r="G303" s="3" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="H302" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I302" s="3" t="inlineStr"/>
-      <c r="J302" s="3" t="inlineStr">
+      <c r="H303" s="3" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I303" s="3" t="inlineStr"/>
+      <c r="J303" s="3" t="inlineStr">
         <is>
           <t>Product use behaviour is included to provide a link between product and a class of behaviour for which the relation always holds.</t>
         </is>
       </c>
-      <c r="K302" s="3" t="inlineStr">
+      <c r="K303" s="3" t="inlineStr">
         <is>
           <t>Product-using behaviour</t>
         </is>
       </c>
-      <c r="L302" s="3" t="inlineStr"/>
-      <c r="M302" s="3" t="inlineStr"/>
-      <c r="N302" s="3" t="inlineStr"/>
-      <c r="O302" s="3" t="inlineStr">
+      <c r="L303" s="3" t="inlineStr"/>
+      <c r="M303" s="3" t="inlineStr"/>
+      <c r="N303" s="3" t="inlineStr"/>
+      <c r="O303" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="P302" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q302" s="3" t="inlineStr"/>
-      <c r="R302" s="3" t="inlineStr">
+      <c r="P303" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q303" s="3" t="inlineStr"/>
+      <c r="R303" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="S302" s="3" t="inlineStr">
+      <c r="S303" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T302" s="3" t="inlineStr"/>
-      <c r="U302" s="3" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="2" t="inlineStr"/>
-      <c r="B303" s="2" t="inlineStr">
-        <is>
-          <t>prolonged abstinence</t>
-        </is>
-      </c>
-      <c r="C303" s="2" t="inlineStr"/>
-      <c r="D303" s="2" t="inlineStr"/>
-      <c r="E303" s="2" t="inlineStr"/>
-      <c r="F303" s="2" t="inlineStr"/>
-      <c r="G303" s="2" t="inlineStr"/>
-      <c r="H303" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I303" s="2" t="inlineStr"/>
-      <c r="J303" s="2" t="inlineStr"/>
-      <c r="K303" s="2" t="inlineStr"/>
-      <c r="L303" s="2" t="inlineStr"/>
-      <c r="M303" s="2" t="inlineStr"/>
-      <c r="N303" s="2" t="inlineStr"/>
-      <c r="O303" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P303" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q303" s="2" t="inlineStr"/>
-      <c r="R303" s="2" t="inlineStr"/>
-      <c r="S303" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T303" s="2" t="inlineStr"/>
-      <c r="U303" s="2" t="inlineStr"/>
+      <c r="T303" s="3" t="inlineStr"/>
+      <c r="U303" s="3" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr"/>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>prolonged smoking abstinence</t>
+          <t>prolonged abstinence</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr"/>
@@ -16426,8 +16442,10 @@
       <c r="L304" s="2" t="inlineStr"/>
       <c r="M304" s="2" t="inlineStr"/>
       <c r="N304" s="2" t="inlineStr"/>
-      <c r="O304" s="2" t="n">
-        <v>1</v>
+      <c r="O304" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P304" s="2" t="inlineStr">
         <is>
@@ -16448,7 +16466,7 @@
       <c r="A305" s="2" t="inlineStr"/>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>puff duration</t>
+          <t>prolonged smoking abstinence</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr"/>
@@ -16489,14 +16507,10 @@
       <c r="A306" s="2" t="inlineStr"/>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>puff velocity</t>
-        </is>
-      </c>
-      <c r="C306" s="2" t="inlineStr">
-        <is>
-          <t>The velocity with which smoke from an inhalation device such as a cigarette or e-cigarette is sucked from the device.</t>
-        </is>
-      </c>
+          <t>puff duration</t>
+        </is>
+      </c>
+      <c r="C306" s="2" t="inlineStr"/>
       <c r="D306" s="2" t="inlineStr"/>
       <c r="E306" s="2" t="inlineStr"/>
       <c r="F306" s="2" t="inlineStr"/>
@@ -16534,10 +16548,14 @@
       <c r="A307" s="2" t="inlineStr"/>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>puff volume</t>
-        </is>
-      </c>
-      <c r="C307" s="2" t="inlineStr"/>
+          <t>puff velocity</t>
+        </is>
+      </c>
+      <c r="C307" s="2" t="inlineStr">
+        <is>
+          <t>The velocity with which smoke from an inhalation device such as a cigarette or e-cigarette is sucked from the device.</t>
+        </is>
+      </c>
       <c r="D307" s="2" t="inlineStr"/>
       <c r="E307" s="2" t="inlineStr"/>
       <c r="F307" s="2" t="inlineStr"/>
@@ -16575,7 +16593,7 @@
       <c r="A308" s="2" t="inlineStr"/>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>puffing behaviour</t>
+          <t>puff volume</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr"/>
@@ -16616,7 +16634,7 @@
       <c r="A309" s="2" t="inlineStr"/>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>puffing conditions</t>
+          <t>puffing behaviour</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr"/>
@@ -16657,7 +16675,7 @@
       <c r="A310" s="2" t="inlineStr"/>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>puffing frequency</t>
+          <t>puffing conditions</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr"/>
@@ -16698,7 +16716,7 @@
       <c r="A311" s="2" t="inlineStr"/>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>puffing pattern</t>
+          <t>puffing frequency</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr"/>
@@ -16739,7 +16757,7 @@
       <c r="A312" s="2" t="inlineStr"/>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>puffing profile</t>
+          <t>puffing pattern</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr"/>
@@ -16780,7 +16798,7 @@
       <c r="A313" s="2" t="inlineStr"/>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>puffing regimen</t>
+          <t>puffing profile</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr"/>
@@ -16821,7 +16839,7 @@
       <c r="A314" s="2" t="inlineStr"/>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>puffing topography</t>
+          <t>puffing regimen</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr"/>
@@ -16862,7 +16880,7 @@
       <c r="A315" s="2" t="inlineStr"/>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>puffing volume</t>
+          <t>puffing topography</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr"/>
@@ -16900,114 +16918,114 @@
       <c r="U315" s="2" t="inlineStr"/>
     </row>
     <row r="316">
-      <c r="A316" s="3" t="inlineStr">
+      <c r="A316" s="2" t="inlineStr"/>
+      <c r="B316" s="2" t="inlineStr">
+        <is>
+          <t>puffing volume</t>
+        </is>
+      </c>
+      <c r="C316" s="2" t="inlineStr"/>
+      <c r="D316" s="2" t="inlineStr"/>
+      <c r="E316" s="2" t="inlineStr"/>
+      <c r="F316" s="2" t="inlineStr"/>
+      <c r="G316" s="2" t="inlineStr"/>
+      <c r="H316" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I316" s="2" t="inlineStr"/>
+      <c r="J316" s="2" t="inlineStr"/>
+      <c r="K316" s="2" t="inlineStr"/>
+      <c r="L316" s="2" t="inlineStr"/>
+      <c r="M316" s="2" t="inlineStr"/>
+      <c r="N316" s="2" t="inlineStr"/>
+      <c r="O316" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P316" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q316" s="2" t="inlineStr"/>
+      <c r="R316" s="2" t="inlineStr"/>
+      <c r="S316" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T316" s="2" t="inlineStr"/>
+      <c r="U316" s="2" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000645</t>
         </is>
       </c>
-      <c r="B316" s="3" t="inlineStr">
+      <c r="B317" s="3" t="inlineStr">
         <is>
           <t>purchase behaviour</t>
         </is>
       </c>
-      <c r="C316" s="3" t="inlineStr">
+      <c r="C317" s="3" t="inlineStr">
         <is>
           <t>An economic behaviour that involves giving money for a product, commodity or service.</t>
         </is>
       </c>
-      <c r="D316" s="3" t="inlineStr"/>
-      <c r="E316" s="3" t="inlineStr"/>
-      <c r="F316" s="3" t="inlineStr">
+      <c r="D317" s="3" t="inlineStr"/>
+      <c r="E317" s="3" t="inlineStr"/>
+      <c r="F317" s="3" t="inlineStr">
         <is>
           <t>economic behaviour</t>
         </is>
       </c>
-      <c r="G316" s="3" t="inlineStr">
+      <c r="G317" s="3" t="inlineStr">
         <is>
           <t>dependent continuant</t>
         </is>
       </c>
-      <c r="H316" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I316" s="3" t="inlineStr"/>
-      <c r="J316" s="3" t="inlineStr"/>
-      <c r="K316" s="3" t="inlineStr"/>
-      <c r="L316" s="3" t="inlineStr"/>
-      <c r="M316" s="3" t="inlineStr"/>
-      <c r="N316" s="3" t="inlineStr"/>
-      <c r="O316" s="3" t="inlineStr">
+      <c r="H317" s="3" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I317" s="3" t="inlineStr"/>
+      <c r="J317" s="3" t="inlineStr"/>
+      <c r="K317" s="3" t="inlineStr"/>
+      <c r="L317" s="3" t="inlineStr"/>
+      <c r="M317" s="3" t="inlineStr"/>
+      <c r="N317" s="3" t="inlineStr"/>
+      <c r="O317" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="P316" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q316" s="3" t="inlineStr"/>
-      <c r="R316" s="3" t="inlineStr">
+      <c r="P317" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q317" s="3" t="inlineStr"/>
+      <c r="R317" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="S316" s="3" t="inlineStr">
+      <c r="S317" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T316" s="3" t="inlineStr"/>
-      <c r="U316" s="3" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="2" t="inlineStr"/>
-      <c r="B317" s="2" t="inlineStr">
-        <is>
-          <t>quit attempt</t>
-        </is>
-      </c>
-      <c r="C317" s="2" t="inlineStr"/>
-      <c r="D317" s="2" t="inlineStr"/>
-      <c r="E317" s="2" t="inlineStr"/>
-      <c r="F317" s="2" t="inlineStr"/>
-      <c r="G317" s="2" t="inlineStr"/>
-      <c r="H317" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I317" s="2" t="inlineStr"/>
-      <c r="J317" s="2" t="inlineStr"/>
-      <c r="K317" s="2" t="inlineStr"/>
-      <c r="L317" s="2" t="inlineStr"/>
-      <c r="M317" s="2" t="inlineStr"/>
-      <c r="N317" s="2" t="inlineStr"/>
-      <c r="O317" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P317" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q317" s="2" t="inlineStr"/>
-      <c r="R317" s="2" t="inlineStr"/>
-      <c r="S317" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T317" s="2" t="inlineStr"/>
-      <c r="U317" s="2" t="inlineStr"/>
+      <c r="T317" s="3" t="inlineStr"/>
+      <c r="U317" s="3" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr"/>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>quit date</t>
+          <t>quit attempt</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr"/>
@@ -17048,7 +17066,7 @@
       <c r="A319" s="2" t="inlineStr"/>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>quit rate</t>
+          <t>quit date</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr"/>
@@ -17089,7 +17107,7 @@
       <c r="A320" s="2" t="inlineStr"/>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>quit success</t>
+          <t>quit rate</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr"/>
@@ -17127,28 +17145,16 @@
       <c r="U320" s="2" t="inlineStr"/>
     </row>
     <row r="321">
-      <c r="A321" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000729</t>
-        </is>
-      </c>
+      <c r="A321" s="2" t="inlineStr"/>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>quitting smoking</t>
-        </is>
-      </c>
-      <c r="C321" s="2" t="inlineStr">
-        <is>
-          <t>A tobacco use pattern that involves the process of quitting smoking cigarettes.</t>
-        </is>
-      </c>
+          <t>quit success</t>
+        </is>
+      </c>
+      <c r="C321" s="2" t="inlineStr"/>
       <c r="D321" s="2" t="inlineStr"/>
       <c r="E321" s="2" t="inlineStr"/>
-      <c r="F321" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use pattern</t>
-        </is>
-      </c>
+      <c r="F321" s="2" t="inlineStr"/>
       <c r="G321" s="2" t="inlineStr"/>
       <c r="H321" s="2" t="inlineStr">
         <is>
@@ -17159,11 +17165,7 @@
       <c r="J321" s="2" t="inlineStr"/>
       <c r="K321" s="2" t="inlineStr"/>
       <c r="L321" s="2" t="inlineStr"/>
-      <c r="M321" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Note this  quitting smoking is distinguished from smoking cessation as in this label we are describing the process of quitting. </t>
-        </is>
-      </c>
+      <c r="M321" s="2" t="inlineStr"/>
       <c r="N321" s="2" t="inlineStr"/>
       <c r="O321" s="2" t="n">
         <v>1</v>
@@ -17174,11 +17176,7 @@
         </is>
       </c>
       <c r="Q321" s="2" t="inlineStr"/>
-      <c r="R321" s="2" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="R321" s="2" t="inlineStr"/>
       <c r="S321" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -17188,16 +17186,28 @@
       <c r="U321" s="2" t="inlineStr"/>
     </row>
     <row r="322">
-      <c r="A322" s="2" t="inlineStr"/>
+      <c r="A322" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000729</t>
+        </is>
+      </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>racial discrimination</t>
-        </is>
-      </c>
-      <c r="C322" s="2" t="inlineStr"/>
+          <t>quitting smoking</t>
+        </is>
+      </c>
+      <c r="C322" s="2" t="inlineStr">
+        <is>
+          <t>A tobacco use pattern that involves the process of quitting smoking cigarettes.</t>
+        </is>
+      </c>
       <c r="D322" s="2" t="inlineStr"/>
       <c r="E322" s="2" t="inlineStr"/>
-      <c r="F322" s="2" t="inlineStr"/>
+      <c r="F322" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use pattern</t>
+        </is>
+      </c>
       <c r="G322" s="2" t="inlineStr"/>
       <c r="H322" s="2" t="inlineStr">
         <is>
@@ -17208,12 +17218,14 @@
       <c r="J322" s="2" t="inlineStr"/>
       <c r="K322" s="2" t="inlineStr"/>
       <c r="L322" s="2" t="inlineStr"/>
-      <c r="M322" s="2" t="inlineStr"/>
+      <c r="M322" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Note this  quitting smoking is distinguished from smoking cessation as in this label we are describing the process of quitting. </t>
+        </is>
+      </c>
       <c r="N322" s="2" t="inlineStr"/>
-      <c r="O322" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O322" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P322" s="2" t="inlineStr">
         <is>
@@ -17221,7 +17233,11 @@
         </is>
       </c>
       <c r="Q322" s="2" t="inlineStr"/>
-      <c r="R322" s="2" t="inlineStr"/>
+      <c r="R322" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="S322" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -17234,7 +17250,7 @@
       <c r="A323" s="2" t="inlineStr"/>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>reading books for leisure</t>
+          <t>racial discrimination</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr"/>
@@ -17277,7 +17293,7 @@
       <c r="A324" s="2" t="inlineStr"/>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>recreational cannabis use</t>
+          <t>reading books for leisure</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr"/>
@@ -17320,7 +17336,7 @@
       <c r="A325" s="2" t="inlineStr"/>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>recreational e-cigarette use</t>
+          <t>recreational cannabis use</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr"/>
@@ -17339,8 +17355,10 @@
       <c r="L325" s="2" t="inlineStr"/>
       <c r="M325" s="2" t="inlineStr"/>
       <c r="N325" s="2" t="inlineStr"/>
-      <c r="O325" s="2" t="n">
-        <v>1</v>
+      <c r="O325" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P325" s="2" t="inlineStr">
         <is>
@@ -17361,7 +17379,7 @@
       <c r="A326" s="2" t="inlineStr"/>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>recreational substance use</t>
+          <t>recreational e-cigarette use</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr"/>
@@ -17380,10 +17398,8 @@
       <c r="L326" s="2" t="inlineStr"/>
       <c r="M326" s="2" t="inlineStr"/>
       <c r="N326" s="2" t="inlineStr"/>
-      <c r="O326" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O326" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P326" s="2" t="inlineStr">
         <is>
@@ -17401,33 +17417,17 @@
       <c r="U326" s="2" t="inlineStr"/>
     </row>
     <row r="327">
-      <c r="A327" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000629</t>
-        </is>
-      </c>
+      <c r="A327" s="2" t="inlineStr"/>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>reduction in cigarettes per day</t>
-        </is>
-      </c>
-      <c r="C327" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A data item which indicates the number of number of cigarettes less per day a person has smoked since the last time data was collected. </t>
-        </is>
-      </c>
+          <t>recreational substance use</t>
+        </is>
+      </c>
+      <c r="C327" s="2" t="inlineStr"/>
       <c r="D327" s="2" t="inlineStr"/>
       <c r="E327" s="2" t="inlineStr"/>
-      <c r="F327" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="G327" s="2" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+      <c r="F327" s="2" t="inlineStr"/>
+      <c r="G327" s="2" t="inlineStr"/>
       <c r="H327" s="2" t="inlineStr">
         <is>
           <t>Human behaviour</t>
@@ -17435,16 +17435,14 @@
       </c>
       <c r="I327" s="2" t="inlineStr"/>
       <c r="J327" s="2" t="inlineStr"/>
-      <c r="K327" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cigarettes per day </t>
-        </is>
-      </c>
+      <c r="K327" s="2" t="inlineStr"/>
       <c r="L327" s="2" t="inlineStr"/>
       <c r="M327" s="2" t="inlineStr"/>
       <c r="N327" s="2" t="inlineStr"/>
-      <c r="O327" s="2" t="n">
-        <v>1</v>
+      <c r="O327" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P327" s="2" t="inlineStr">
         <is>
@@ -17452,11 +17450,7 @@
         </is>
       </c>
       <c r="Q327" s="2" t="inlineStr"/>
-      <c r="R327" s="2" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="R327" s="2" t="inlineStr"/>
       <c r="S327" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -17466,17 +17460,33 @@
       <c r="U327" s="2" t="inlineStr"/>
     </row>
     <row r="328">
-      <c r="A328" s="2" t="inlineStr"/>
+      <c r="A328" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000629</t>
+        </is>
+      </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>reduction in substance consumption</t>
-        </is>
-      </c>
-      <c r="C328" s="2" t="inlineStr"/>
+          <t>reduction in cigarettes per day</t>
+        </is>
+      </c>
+      <c r="C328" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A data item which indicates the number of number of cigarettes less per day a person has smoked since the last time data was collected. </t>
+        </is>
+      </c>
       <c r="D328" s="2" t="inlineStr"/>
       <c r="E328" s="2" t="inlineStr"/>
-      <c r="F328" s="2" t="inlineStr"/>
-      <c r="G328" s="2" t="inlineStr"/>
+      <c r="F328" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="G328" s="2" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="H328" s="2" t="inlineStr">
         <is>
           <t>Human behaviour</t>
@@ -17486,16 +17496,14 @@
       <c r="J328" s="2" t="inlineStr"/>
       <c r="K328" s="2" t="inlineStr">
         <is>
-          <t>Cut down</t>
+          <t xml:space="preserve">Cigarettes per day </t>
         </is>
       </c>
       <c r="L328" s="2" t="inlineStr"/>
       <c r="M328" s="2" t="inlineStr"/>
       <c r="N328" s="2" t="inlineStr"/>
-      <c r="O328" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O328" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P328" s="2" t="inlineStr">
         <is>
@@ -17503,7 +17511,11 @@
         </is>
       </c>
       <c r="Q328" s="2" t="inlineStr"/>
-      <c r="R328" s="2" t="inlineStr"/>
+      <c r="R328" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="S328" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -17516,7 +17528,7 @@
       <c r="A329" s="2" t="inlineStr"/>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>regular cannabis use</t>
+          <t>reduction in substance consumption</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr"/>
@@ -17531,7 +17543,11 @@
       </c>
       <c r="I329" s="2" t="inlineStr"/>
       <c r="J329" s="2" t="inlineStr"/>
-      <c r="K329" s="2" t="inlineStr"/>
+      <c r="K329" s="2" t="inlineStr">
+        <is>
+          <t>Cut down</t>
+        </is>
+      </c>
       <c r="L329" s="2" t="inlineStr"/>
       <c r="M329" s="2" t="inlineStr"/>
       <c r="N329" s="2" t="inlineStr"/>
@@ -17556,120 +17572,120 @@
       <c r="U329" s="2" t="inlineStr"/>
     </row>
     <row r="330">
-      <c r="A330" s="6" t="inlineStr">
+      <c r="A330" s="2" t="inlineStr"/>
+      <c r="B330" s="2" t="inlineStr">
+        <is>
+          <t>regular cannabis use</t>
+        </is>
+      </c>
+      <c r="C330" s="2" t="inlineStr"/>
+      <c r="D330" s="2" t="inlineStr"/>
+      <c r="E330" s="2" t="inlineStr"/>
+      <c r="F330" s="2" t="inlineStr"/>
+      <c r="G330" s="2" t="inlineStr"/>
+      <c r="H330" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I330" s="2" t="inlineStr"/>
+      <c r="J330" s="2" t="inlineStr"/>
+      <c r="K330" s="2" t="inlineStr"/>
+      <c r="L330" s="2" t="inlineStr"/>
+      <c r="M330" s="2" t="inlineStr"/>
+      <c r="N330" s="2" t="inlineStr"/>
+      <c r="O330" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P330" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q330" s="2" t="inlineStr"/>
+      <c r="R330" s="2" t="inlineStr"/>
+      <c r="S330" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T330" s="2" t="inlineStr"/>
+      <c r="U330" s="2" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="6" t="inlineStr">
         <is>
           <t>ADDICTO:0000648</t>
         </is>
       </c>
-      <c r="B330" s="6" t="inlineStr">
+      <c r="B331" s="6" t="inlineStr">
         <is>
           <t>regular cigarette use</t>
         </is>
       </c>
-      <c r="C330" s="6" t="inlineStr">
+      <c r="C331" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that involves regular use of cigarettes. </t>
         </is>
       </c>
-      <c r="D330" s="6" t="inlineStr"/>
-      <c r="E330" s="6" t="inlineStr"/>
-      <c r="F330" s="6" t="inlineStr">
+      <c r="D331" s="6" t="inlineStr"/>
+      <c r="E331" s="6" t="inlineStr"/>
+      <c r="F331" s="6" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G330" s="6" t="inlineStr">
+      <c r="G331" s="6" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H330" s="6" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I330" s="6" t="inlineStr"/>
-      <c r="J330" s="6" t="inlineStr"/>
-      <c r="K330" s="6" t="inlineStr"/>
-      <c r="L330" s="6" t="inlineStr"/>
-      <c r="M330" s="6" t="inlineStr">
+      <c r="H331" s="6" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I331" s="6" t="inlineStr"/>
+      <c r="J331" s="6" t="inlineStr"/>
+      <c r="K331" s="6" t="inlineStr"/>
+      <c r="L331" s="6" t="inlineStr"/>
+      <c r="M331" s="6" t="inlineStr">
         <is>
           <t>'Regular' cigarette smoking is commonly used in research studies but always needs to be defined to create a corresponding data item (e.g. 'Cigarette use at least once a week'). Note that in ontologies 'data items' are information content entities that are about some other entity. Note also that the Behaviour Change Intervention Ontology includes a data item 'behavioural frequency' which is related to this data item.</t>
         </is>
       </c>
-      <c r="N330" s="6" t="inlineStr"/>
-      <c r="O330" s="6" t="n">
+      <c r="N331" s="6" t="inlineStr"/>
+      <c r="O331" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="P330" s="6" t="n">
+      <c r="P331" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q330" s="6" t="inlineStr">
+      <c r="Q331" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">'Regular' needs to be operationalised as a data item when used. </t>
         </is>
       </c>
-      <c r="R330" s="6" t="inlineStr">
+      <c r="R331" s="6" t="inlineStr">
         <is>
           <t>SC; RW</t>
         </is>
       </c>
-      <c r="S330" s="6" t="inlineStr">
+      <c r="S331" s="6" t="inlineStr">
         <is>
           <t>In Discussion</t>
         </is>
       </c>
-      <c r="T330" s="6" t="inlineStr"/>
-      <c r="U330" s="6" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="2" t="inlineStr"/>
-      <c r="B331" s="2" t="inlineStr">
-        <is>
-          <t>relapse</t>
-        </is>
-      </c>
-      <c r="C331" s="2" t="inlineStr"/>
-      <c r="D331" s="2" t="inlineStr"/>
-      <c r="E331" s="2" t="inlineStr"/>
-      <c r="F331" s="2" t="inlineStr"/>
-      <c r="G331" s="2" t="inlineStr"/>
-      <c r="H331" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I331" s="2" t="inlineStr"/>
-      <c r="J331" s="2" t="inlineStr"/>
-      <c r="K331" s="2" t="inlineStr"/>
-      <c r="L331" s="2" t="inlineStr"/>
-      <c r="M331" s="2" t="inlineStr"/>
-      <c r="N331" s="2" t="inlineStr"/>
-      <c r="O331" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P331" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q331" s="2" t="inlineStr"/>
-      <c r="R331" s="2" t="inlineStr"/>
-      <c r="S331" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T331" s="2" t="inlineStr"/>
-      <c r="U331" s="2" t="inlineStr"/>
+      <c r="T331" s="6" t="inlineStr"/>
+      <c r="U331" s="6" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="2" t="inlineStr"/>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>relapse to smoking</t>
+          <t>relapse</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr"/>
@@ -17688,8 +17704,10 @@
       <c r="L332" s="2" t="inlineStr"/>
       <c r="M332" s="2" t="inlineStr"/>
       <c r="N332" s="2" t="inlineStr"/>
-      <c r="O332" s="2" t="n">
-        <v>1</v>
+      <c r="O332" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P332" s="2" t="inlineStr">
         <is>
@@ -17710,7 +17728,7 @@
       <c r="A333" s="2" t="inlineStr"/>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t>repeated 7-day point prevalence abstinence</t>
+          <t>relapse to smoking</t>
         </is>
       </c>
       <c r="C333" s="2" t="inlineStr"/>
@@ -17751,7 +17769,7 @@
       <c r="A334" s="2" t="inlineStr"/>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>repeated 7-day point prevalence abstinence</t>
         </is>
       </c>
       <c r="C334" s="2" t="inlineStr"/>
@@ -17770,10 +17788,8 @@
       <c r="L334" s="2" t="inlineStr"/>
       <c r="M334" s="2" t="inlineStr"/>
       <c r="N334" s="2" t="inlineStr"/>
-      <c r="O334" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O334" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P334" s="2" t="inlineStr">
         <is>
@@ -17794,7 +17810,7 @@
       <c r="A335" s="2" t="inlineStr"/>
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t>risky driving</t>
+          <t>response</t>
         </is>
       </c>
       <c r="C335" s="2" t="inlineStr"/>
@@ -17837,7 +17853,7 @@
       <c r="A336" s="2" t="inlineStr"/>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>risky driving behaviour</t>
+          <t>risky driving</t>
         </is>
       </c>
       <c r="C336" s="2" t="inlineStr"/>
@@ -17880,7 +17896,7 @@
       <c r="A337" s="2" t="inlineStr"/>
       <c r="B337" s="2" t="inlineStr">
         <is>
-          <t>risky sexual behaviour</t>
+          <t>risky driving behaviour</t>
         </is>
       </c>
       <c r="C337" s="2" t="inlineStr"/>
@@ -17923,7 +17939,7 @@
       <c r="A338" s="2" t="inlineStr"/>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>risky single occasion drinking</t>
+          <t>risky sexual behaviour</t>
         </is>
       </c>
       <c r="C338" s="2" t="inlineStr"/>
@@ -17966,7 +17982,7 @@
       <c r="A339" s="2" t="inlineStr"/>
       <c r="B339" s="2" t="inlineStr">
         <is>
-          <t>safe-drug injecting practices</t>
+          <t>risky single occasion drinking</t>
         </is>
       </c>
       <c r="C339" s="2" t="inlineStr"/>
@@ -18009,7 +18025,7 @@
       <c r="A340" s="2" t="inlineStr"/>
       <c r="B340" s="2" t="inlineStr">
         <is>
-          <t>seeking treatment for substance use</t>
+          <t>safe-drug injecting practices</t>
         </is>
       </c>
       <c r="C340" s="2" t="inlineStr"/>
@@ -18052,7 +18068,7 @@
       <c r="A341" s="2" t="inlineStr"/>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>self-procurement of buprenorphine</t>
+          <t>seeking treatment for substance use</t>
         </is>
       </c>
       <c r="C341" s="2" t="inlineStr"/>
@@ -18095,7 +18111,7 @@
       <c r="A342" s="2" t="inlineStr"/>
       <c r="B342" s="2" t="inlineStr">
         <is>
-          <t>self-reported abstinence</t>
+          <t>self-procurement of buprenorphine</t>
         </is>
       </c>
       <c r="C342" s="2" t="inlineStr"/>
@@ -18138,7 +18154,7 @@
       <c r="A343" s="2" t="inlineStr"/>
       <c r="B343" s="2" t="inlineStr">
         <is>
-          <t>self-reported alcohol consumption</t>
+          <t>self-reported abstinence</t>
         </is>
       </c>
       <c r="C343" s="2" t="inlineStr"/>
@@ -18181,7 +18197,7 @@
       <c r="A344" s="2" t="inlineStr"/>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>self-reported alcohol use</t>
+          <t>self-reported alcohol consumption</t>
         </is>
       </c>
       <c r="C344" s="2" t="inlineStr"/>
@@ -18198,30 +18214,20 @@
       <c r="J344" s="2" t="inlineStr"/>
       <c r="K344" s="2" t="inlineStr"/>
       <c r="L344" s="2" t="inlineStr"/>
-      <c r="M344" s="2" t="inlineStr">
-        <is>
-          <t>Specify time frame of use</t>
-        </is>
-      </c>
+      <c r="M344" s="2" t="inlineStr"/>
       <c r="N344" s="2" t="inlineStr"/>
       <c r="O344" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="P344" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q344" s="2" t="inlineStr">
-        <is>
-          <t>subjective reporting, 'use' may vary by individuals and time when used may also vary</t>
-        </is>
-      </c>
-      <c r="R344" s="2" t="inlineStr">
-        <is>
-          <t>KS</t>
-        </is>
-      </c>
+      <c r="P344" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q344" s="2" t="inlineStr"/>
+      <c r="R344" s="2" t="inlineStr"/>
       <c r="S344" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -18234,7 +18240,7 @@
       <c r="A345" s="2" t="inlineStr"/>
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t>self-reported cannabis use</t>
+          <t>self-reported alcohol use</t>
         </is>
       </c>
       <c r="C345" s="2" t="inlineStr"/>
@@ -18259,7 +18265,7 @@
       <c r="N345" s="2" t="inlineStr"/>
       <c r="O345" s="2" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P345" s="2" t="n">
@@ -18287,7 +18293,7 @@
       <c r="A346" s="2" t="inlineStr"/>
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t>self-reported opioid use</t>
+          <t>self-reported cannabis use</t>
         </is>
       </c>
       <c r="C346" s="2" t="inlineStr"/>
@@ -18312,7 +18318,7 @@
       <c r="N346" s="2" t="inlineStr"/>
       <c r="O346" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="P346" s="2" t="n">
@@ -18340,7 +18346,7 @@
       <c r="A347" s="2" t="inlineStr"/>
       <c r="B347" s="2" t="inlineStr">
         <is>
-          <t>self-reported psychoactive substance use</t>
+          <t>self-reported opioid use</t>
         </is>
       </c>
       <c r="C347" s="2" t="inlineStr"/>
@@ -18393,7 +18399,7 @@
       <c r="A348" s="2" t="inlineStr"/>
       <c r="B348" s="2" t="inlineStr">
         <is>
-          <t>self-weaning off substances</t>
+          <t>self-reported psychoactive substance use</t>
         </is>
       </c>
       <c r="C348" s="2" t="inlineStr"/>
@@ -18410,18 +18416,30 @@
       <c r="J348" s="2" t="inlineStr"/>
       <c r="K348" s="2" t="inlineStr"/>
       <c r="L348" s="2" t="inlineStr"/>
-      <c r="M348" s="2" t="inlineStr"/>
+      <c r="M348" s="2" t="inlineStr">
+        <is>
+          <t>Specify time frame of use</t>
+        </is>
+      </c>
       <c r="N348" s="2" t="inlineStr"/>
-      <c r="O348" s="2" t="n">
+      <c r="O348" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P348" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P348" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q348" s="2" t="inlineStr"/>
-      <c r="R348" s="2" t="inlineStr"/>
+      <c r="Q348" s="2" t="inlineStr">
+        <is>
+          <t>subjective reporting, 'use' may vary by individuals and time when used may also vary</t>
+        </is>
+      </c>
+      <c r="R348" s="2" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
       <c r="S348" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -18434,7 +18452,7 @@
       <c r="A349" s="2" t="inlineStr"/>
       <c r="B349" s="2" t="inlineStr">
         <is>
-          <t>sequence of substance use onset</t>
+          <t>self-weaning off substances</t>
         </is>
       </c>
       <c r="C349" s="2" t="inlineStr"/>
@@ -18453,10 +18471,8 @@
       <c r="L349" s="2" t="inlineStr"/>
       <c r="M349" s="2" t="inlineStr"/>
       <c r="N349" s="2" t="inlineStr"/>
-      <c r="O349" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O349" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P349" s="2" t="inlineStr">
         <is>
@@ -18477,7 +18493,7 @@
       <c r="A350" s="2" t="inlineStr"/>
       <c r="B350" s="2" t="inlineStr">
         <is>
-          <t>serious quit attempt</t>
+          <t>sequence of substance use onset</t>
         </is>
       </c>
       <c r="C350" s="2" t="inlineStr"/>
@@ -18496,8 +18512,10 @@
       <c r="L350" s="2" t="inlineStr"/>
       <c r="M350" s="2" t="inlineStr"/>
       <c r="N350" s="2" t="inlineStr"/>
-      <c r="O350" s="2" t="n">
-        <v>1</v>
+      <c r="O350" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P350" s="2" t="inlineStr">
         <is>
@@ -18518,7 +18536,7 @@
       <c r="A351" s="2" t="inlineStr"/>
       <c r="B351" s="2" t="inlineStr">
         <is>
-          <t>sexual abuse</t>
+          <t>serious quit attempt</t>
         </is>
       </c>
       <c r="C351" s="2" t="inlineStr"/>
@@ -18537,10 +18555,8 @@
       <c r="L351" s="2" t="inlineStr"/>
       <c r="M351" s="2" t="inlineStr"/>
       <c r="N351" s="2" t="inlineStr"/>
-      <c r="O351" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O351" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P351" s="2" t="inlineStr">
         <is>
@@ -18561,7 +18577,7 @@
       <c r="A352" s="2" t="inlineStr"/>
       <c r="B352" s="2" t="inlineStr">
         <is>
-          <t>sexual behaviour</t>
+          <t>sexual abuse</t>
         </is>
       </c>
       <c r="C352" s="2" t="inlineStr"/>
@@ -18604,7 +18620,7 @@
       <c r="A353" s="2" t="inlineStr"/>
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t>sexual risk behaviour</t>
+          <t>sexual behaviour</t>
         </is>
       </c>
       <c r="C353" s="2" t="inlineStr"/>
@@ -18647,7 +18663,7 @@
       <c r="A354" s="2" t="inlineStr"/>
       <c r="B354" s="2" t="inlineStr">
         <is>
-          <t>sexual risk-taking</t>
+          <t>sexual risk behaviour</t>
         </is>
       </c>
       <c r="C354" s="2" t="inlineStr"/>
@@ -18690,7 +18706,7 @@
       <c r="A355" s="2" t="inlineStr"/>
       <c r="B355" s="2" t="inlineStr">
         <is>
-          <t>sharing drinking behavior</t>
+          <t>sexual risk-taking</t>
         </is>
       </c>
       <c r="C355" s="2" t="inlineStr"/>
@@ -18733,7 +18749,7 @@
       <c r="A356" s="2" t="inlineStr"/>
       <c r="B356" s="2" t="inlineStr">
         <is>
-          <t>sickness absence</t>
+          <t>sharing drinking behavior</t>
         </is>
       </c>
       <c r="C356" s="2" t="inlineStr"/>
@@ -18776,7 +18792,7 @@
       <c r="A357" s="2" t="inlineStr"/>
       <c r="B357" s="2" t="inlineStr">
         <is>
-          <t>single drinking occasion</t>
+          <t>sickness absence</t>
         </is>
       </c>
       <c r="C357" s="2" t="inlineStr"/>
@@ -18819,7 +18835,7 @@
       <c r="A358" s="2" t="inlineStr"/>
       <c r="B358" s="2" t="inlineStr">
         <is>
-          <t>skin cleaning</t>
+          <t>single drinking occasion</t>
         </is>
       </c>
       <c r="C358" s="2" t="inlineStr"/>
@@ -18859,33 +18875,17 @@
       <c r="U358" s="2" t="inlineStr"/>
     </row>
     <row r="359">
-      <c r="A359" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000701</t>
-        </is>
-      </c>
+      <c r="A359" s="2" t="inlineStr"/>
       <c r="B359" s="2" t="inlineStr">
         <is>
-          <t>smokeless tobacco daily use</t>
-        </is>
-      </c>
-      <c r="C359" s="2" t="inlineStr">
-        <is>
-          <t>A tobacco use pattern that involves use of smokeless tobacco at least once per day.</t>
-        </is>
-      </c>
+          <t>skin cleaning</t>
+        </is>
+      </c>
+      <c r="C359" s="2" t="inlineStr"/>
       <c r="D359" s="2" t="inlineStr"/>
       <c r="E359" s="2" t="inlineStr"/>
-      <c r="F359" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use pattern</t>
-        </is>
-      </c>
-      <c r="G359" s="2" t="inlineStr">
-        <is>
-          <t>Dependent continuant</t>
-        </is>
-      </c>
+      <c r="F359" s="2" t="inlineStr"/>
+      <c r="G359" s="2" t="inlineStr"/>
       <c r="H359" s="2" t="inlineStr">
         <is>
           <t>Human behaviour</t>
@@ -18897,8 +18897,10 @@
       <c r="L359" s="2" t="inlineStr"/>
       <c r="M359" s="2" t="inlineStr"/>
       <c r="N359" s="2" t="inlineStr"/>
-      <c r="O359" s="2" t="n">
-        <v>1</v>
+      <c r="O359" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P359" s="2" t="inlineStr">
         <is>
@@ -18906,11 +18908,7 @@
         </is>
       </c>
       <c r="Q359" s="2" t="inlineStr"/>
-      <c r="R359" s="2" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="R359" s="2" t="inlineStr"/>
       <c r="S359" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -18922,27 +18920,31 @@
     <row r="360">
       <c r="A360" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000706</t>
+          <t>ADDICTO:0000701</t>
         </is>
       </c>
       <c r="B360" s="2" t="inlineStr">
         <is>
-          <t>smokeless tobacco demand</t>
+          <t>smokeless tobacco daily use</t>
         </is>
       </c>
       <c r="C360" s="2" t="inlineStr">
         <is>
-          <t>A product demand in which the product is smokeless tobacco.</t>
+          <t>A tobacco use pattern that involves use of smokeless tobacco at least once per day.</t>
         </is>
       </c>
       <c r="D360" s="2" t="inlineStr"/>
       <c r="E360" s="2" t="inlineStr"/>
       <c r="F360" s="2" t="inlineStr">
         <is>
-          <t>product demand</t>
-        </is>
-      </c>
-      <c r="G360" s="2" t="inlineStr"/>
+          <t>tobacco use pattern</t>
+        </is>
+      </c>
+      <c r="G360" s="2" t="inlineStr">
+        <is>
+          <t>Dependent continuant</t>
+        </is>
+      </c>
       <c r="H360" s="2" t="inlineStr">
         <is>
           <t>Human behaviour</t>
@@ -18950,17 +18952,9 @@
       </c>
       <c r="I360" s="2" t="inlineStr"/>
       <c r="J360" s="2" t="inlineStr"/>
-      <c r="K360" s="2" t="inlineStr">
-        <is>
-          <t>Purchase demand</t>
-        </is>
-      </c>
+      <c r="K360" s="2" t="inlineStr"/>
       <c r="L360" s="2" t="inlineStr"/>
-      <c r="M360" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The type of smokeless tobacco product should also be defined. </t>
-        </is>
-      </c>
+      <c r="M360" s="2" t="inlineStr"/>
       <c r="N360" s="2" t="inlineStr"/>
       <c r="O360" s="2" t="n">
         <v>1</v>
@@ -18987,31 +18981,27 @@
     <row r="361">
       <c r="A361" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000707</t>
+          <t>ADDICTO:0000706</t>
         </is>
       </c>
       <c r="B361" s="2" t="inlineStr">
         <is>
-          <t>smokeless tobacco ever use</t>
+          <t>smokeless tobacco demand</t>
         </is>
       </c>
       <c r="C361" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ever use in which the product is a smokeless tobacco product. </t>
+          <t>A product demand in which the product is smokeless tobacco.</t>
         </is>
       </c>
       <c r="D361" s="2" t="inlineStr"/>
       <c r="E361" s="2" t="inlineStr"/>
       <c r="F361" s="2" t="inlineStr">
         <is>
-          <t>tobacco use pattern</t>
-        </is>
-      </c>
-      <c r="G361" s="2" t="inlineStr">
-        <is>
-          <t>Dependent continuant</t>
-        </is>
-      </c>
+          <t>product demand</t>
+        </is>
+      </c>
+      <c r="G361" s="2" t="inlineStr"/>
       <c r="H361" s="2" t="inlineStr">
         <is>
           <t>Human behaviour</t>
@@ -19019,9 +19009,17 @@
       </c>
       <c r="I361" s="2" t="inlineStr"/>
       <c r="J361" s="2" t="inlineStr"/>
-      <c r="K361" s="2" t="inlineStr"/>
+      <c r="K361" s="2" t="inlineStr">
+        <is>
+          <t>Purchase demand</t>
+        </is>
+      </c>
       <c r="L361" s="2" t="inlineStr"/>
-      <c r="M361" s="2" t="inlineStr"/>
+      <c r="M361" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The type of smokeless tobacco product should also be defined. </t>
+        </is>
+      </c>
       <c r="N361" s="2" t="inlineStr"/>
       <c r="O361" s="2" t="n">
         <v>1</v>
@@ -19048,17 +19046,17 @@
     <row r="362">
       <c r="A362" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000704</t>
+          <t>ADDICTO:0000707</t>
         </is>
       </c>
       <c r="B362" s="2" t="inlineStr">
         <is>
-          <t>smokeless tobacco past 1-month use</t>
+          <t>smokeless tobacco ever use</t>
         </is>
       </c>
       <c r="C362" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco use pattern that indicates a person has used smokeless tobacco in the 1-month prior to the time of asking. </t>
+          <t xml:space="preserve">Ever use in which the product is a smokeless tobacco product. </t>
         </is>
       </c>
       <c r="D362" s="2" t="inlineStr"/>
@@ -19109,17 +19107,17 @@
     <row r="363">
       <c r="A363" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000705</t>
+          <t>ADDICTO:0000704</t>
         </is>
       </c>
       <c r="B363" s="2" t="inlineStr">
         <is>
-          <t>smokeless tobacco past 1-year use</t>
+          <t>smokeless tobacco past 1-month use</t>
         </is>
       </c>
       <c r="C363" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco use pattern that indicates a person has used smokeless tobacco in the 1-year prior to the time of asking. </t>
+          <t xml:space="preserve">A tobacco use pattern that indicates a person has used smokeless tobacco in the 1-month prior to the time of asking. </t>
         </is>
       </c>
       <c r="D363" s="2" t="inlineStr"/>
@@ -19170,17 +19168,17 @@
     <row r="364">
       <c r="A364" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000702</t>
+          <t>ADDICTO:0000705</t>
         </is>
       </c>
       <c r="B364" s="2" t="inlineStr">
         <is>
-          <t>smokeless tobacco past 30-day use</t>
+          <t>smokeless tobacco past 1-year use</t>
         </is>
       </c>
       <c r="C364" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco use pattern that indicates a person has used smokeless tobacco in the 30-days prior to the time of asking. </t>
+          <t xml:space="preserve">A tobacco use pattern that indicates a person has used smokeless tobacco in the 1-year prior to the time of asking. </t>
         </is>
       </c>
       <c r="D364" s="2" t="inlineStr"/>
@@ -19231,17 +19229,17 @@
     <row r="365">
       <c r="A365" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000703</t>
+          <t>ADDICTO:0000702</t>
         </is>
       </c>
       <c r="B365" s="2" t="inlineStr">
         <is>
-          <t>smokeless tobacco past 7-day use</t>
+          <t>smokeless tobacco past 30-day use</t>
         </is>
       </c>
       <c r="C365" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco use pattern that indicates a person has used smokeless tobacco in the 7-days prior to the time of asking. </t>
+          <t xml:space="preserve">A tobacco use pattern that indicates a person has used smokeless tobacco in the 30-days prior to the time of asking. </t>
         </is>
       </c>
       <c r="D365" s="2" t="inlineStr"/>
@@ -19290,224 +19288,218 @@
       <c r="U365" s="2" t="inlineStr"/>
     </row>
     <row r="366">
-      <c r="A366" s="3" t="inlineStr">
+      <c r="A366" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000703</t>
+        </is>
+      </c>
+      <c r="B366" s="2" t="inlineStr">
+        <is>
+          <t>smokeless tobacco past 7-day use</t>
+        </is>
+      </c>
+      <c r="C366" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A tobacco use pattern that indicates a person has used smokeless tobacco in the 7-days prior to the time of asking. </t>
+        </is>
+      </c>
+      <c r="D366" s="2" t="inlineStr"/>
+      <c r="E366" s="2" t="inlineStr"/>
+      <c r="F366" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use pattern</t>
+        </is>
+      </c>
+      <c r="G366" s="2" t="inlineStr">
+        <is>
+          <t>Dependent continuant</t>
+        </is>
+      </c>
+      <c r="H366" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I366" s="2" t="inlineStr"/>
+      <c r="J366" s="2" t="inlineStr"/>
+      <c r="K366" s="2" t="inlineStr"/>
+      <c r="L366" s="2" t="inlineStr"/>
+      <c r="M366" s="2" t="inlineStr"/>
+      <c r="N366" s="2" t="inlineStr"/>
+      <c r="O366" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P366" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q366" s="2" t="inlineStr"/>
+      <c r="R366" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S366" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T366" s="2" t="inlineStr"/>
+      <c r="U366" s="2" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000708</t>
         </is>
       </c>
-      <c r="B366" s="3" t="inlineStr">
+      <c r="B367" s="3" t="inlineStr">
         <is>
           <t>smokeless tobacco purchase behaviour</t>
         </is>
       </c>
-      <c r="C366" s="3" t="inlineStr">
+      <c r="C367" s="3" t="inlineStr">
         <is>
           <t>A product purchase in which the product is smokeless tobacco.</t>
         </is>
       </c>
-      <c r="D366" s="3" t="inlineStr"/>
-      <c r="E366" s="3" t="inlineStr"/>
-      <c r="F366" s="3" t="inlineStr">
+      <c r="D367" s="3" t="inlineStr"/>
+      <c r="E367" s="3" t="inlineStr"/>
+      <c r="F367" s="3" t="inlineStr">
         <is>
           <t>purchase behaviour</t>
         </is>
       </c>
-      <c r="G366" s="3" t="inlineStr">
+      <c r="G367" s="3" t="inlineStr">
         <is>
           <t>dependent continuant</t>
         </is>
       </c>
-      <c r="H366" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I366" s="3" t="inlineStr"/>
-      <c r="J366" s="3" t="inlineStr"/>
-      <c r="K366" s="3" t="inlineStr">
+      <c r="H367" s="3" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I367" s="3" t="inlineStr"/>
+      <c r="J367" s="3" t="inlineStr"/>
+      <c r="K367" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tobacco purchase </t>
         </is>
       </c>
-      <c r="L366" s="3" t="inlineStr"/>
-      <c r="M366" s="3" t="inlineStr"/>
-      <c r="N366" s="3" t="inlineStr"/>
-      <c r="O366" s="3" t="n">
+      <c r="L367" s="3" t="inlineStr"/>
+      <c r="M367" s="3" t="inlineStr"/>
+      <c r="N367" s="3" t="inlineStr"/>
+      <c r="O367" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P366" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q366" s="3" t="inlineStr"/>
-      <c r="R366" s="3" t="inlineStr">
+      <c r="P367" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q367" s="3" t="inlineStr"/>
+      <c r="R367" s="3" t="inlineStr">
         <is>
           <t>SC; RW</t>
         </is>
       </c>
-      <c r="S366" s="3" t="inlineStr">
+      <c r="S367" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T366" s="3" t="inlineStr"/>
-      <c r="U366" s="3" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="2" t="inlineStr">
+      <c r="T367" s="3" t="inlineStr"/>
+      <c r="U367" s="3" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000709</t>
         </is>
       </c>
-      <c r="B367" s="2" t="inlineStr">
+      <c r="B368" s="2" t="inlineStr">
         <is>
           <t>smokeless tobacco regular use</t>
         </is>
       </c>
-      <c r="C367" s="2" t="inlineStr">
+      <c r="C368" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that involves regular use of smokeless tobacco. </t>
         </is>
       </c>
-      <c r="D367" s="2" t="inlineStr"/>
-      <c r="E367" s="2" t="inlineStr"/>
-      <c r="F367" s="2" t="inlineStr">
+      <c r="D368" s="2" t="inlineStr"/>
+      <c r="E368" s="2" t="inlineStr"/>
+      <c r="F368" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G367" s="2" t="inlineStr">
+      <c r="G368" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H367" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I367" s="2" t="inlineStr"/>
-      <c r="J367" s="2" t="inlineStr"/>
-      <c r="K367" s="2" t="inlineStr"/>
-      <c r="L367" s="2" t="inlineStr"/>
-      <c r="M367" s="2" t="inlineStr"/>
-      <c r="N367" s="2" t="inlineStr"/>
-      <c r="O367" s="2" t="n">
+      <c r="H368" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I368" s="2" t="inlineStr"/>
+      <c r="J368" s="2" t="inlineStr"/>
+      <c r="K368" s="2" t="inlineStr"/>
+      <c r="L368" s="2" t="inlineStr"/>
+      <c r="M368" s="2" t="inlineStr"/>
+      <c r="N368" s="2" t="inlineStr"/>
+      <c r="O368" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P367" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q367" s="2" t="inlineStr"/>
-      <c r="R367" s="2" t="inlineStr">
+      <c r="P368" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q368" s="2" t="inlineStr"/>
+      <c r="R368" s="2" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="S367" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T367" s="2" t="inlineStr"/>
-      <c r="U367" s="2" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000700</t>
-        </is>
-      </c>
-      <c r="B368" s="3" t="inlineStr">
-        <is>
-          <t>smokeless tobacco use</t>
-        </is>
-      </c>
-      <c r="C368" s="3" t="inlineStr">
-        <is>
-          <t>Tobacco use that involves the use of a smokeless tobacco product.</t>
-        </is>
-      </c>
-      <c r="D368" s="3" t="inlineStr"/>
-      <c r="E368" s="3" t="inlineStr"/>
-      <c r="F368" s="3" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
-      <c r="G368" s="3" t="inlineStr">
-        <is>
-          <t>Dependent continuant</t>
-        </is>
-      </c>
-      <c r="H368" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I368" s="3" t="inlineStr"/>
-      <c r="J368" s="3" t="inlineStr"/>
-      <c r="K368" s="3" t="inlineStr">
-        <is>
-          <t>non-combustible tobacco use</t>
-        </is>
-      </c>
-      <c r="L368" s="3" t="inlineStr"/>
-      <c r="M368" s="3" t="inlineStr"/>
-      <c r="N368" s="3" t="inlineStr"/>
-      <c r="O368" s="3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="P368" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q368" s="3" t="inlineStr"/>
-      <c r="R368" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="S368" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T368" s="3" t="inlineStr"/>
-      <c r="U368" s="3" t="inlineStr"/>
+      <c r="S368" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T368" s="2" t="inlineStr"/>
+      <c r="U368" s="2" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000699</t>
+          <t>ADDICTO:0000700</t>
         </is>
       </c>
       <c r="B369" s="3" t="inlineStr">
         <is>
-          <t>smokeless tobacco use behaviour pattern</t>
+          <t>smokeless tobacco use</t>
         </is>
       </c>
       <c r="C369" s="3" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves the use of a smokeless tobacco-containing product.</t>
+          <t>Tobacco use that involves the use of a smokeless tobacco product.</t>
         </is>
       </c>
       <c r="D369" s="3" t="inlineStr"/>
       <c r="E369" s="3" t="inlineStr"/>
       <c r="F369" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use</t>
         </is>
       </c>
       <c r="G369" s="3" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Dependent continuant</t>
         </is>
       </c>
       <c r="H369" s="3" t="inlineStr">
@@ -19519,14 +19511,16 @@
       <c r="J369" s="3" t="inlineStr"/>
       <c r="K369" s="3" t="inlineStr">
         <is>
-          <t>smokeless tobacco use</t>
+          <t>non-combustible tobacco use</t>
         </is>
       </c>
       <c r="L369" s="3" t="inlineStr"/>
       <c r="M369" s="3" t="inlineStr"/>
       <c r="N369" s="3" t="inlineStr"/>
-      <c r="O369" s="3" t="n">
-        <v>1</v>
+      <c r="O369" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="P369" s="3" t="inlineStr">
         <is>
@@ -19536,7 +19530,7 @@
       <c r="Q369" s="3" t="inlineStr"/>
       <c r="R369" s="3" t="inlineStr">
         <is>
-          <t>SC; RW</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="S369" s="3" t="inlineStr">
@@ -19548,87 +19542,93 @@
       <c r="U369" s="3" t="inlineStr"/>
     </row>
     <row r="370">
-      <c r="A370" s="2" t="inlineStr">
+      <c r="A370" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000699</t>
+        </is>
+      </c>
+      <c r="B370" s="3" t="inlineStr">
+        <is>
+          <t>smokeless tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C370" s="3" t="inlineStr">
+        <is>
+          <t>A tobacco use behaviour pattern that involves the use of a smokeless tobacco-containing product.</t>
+        </is>
+      </c>
+      <c r="D370" s="3" t="inlineStr"/>
+      <c r="E370" s="3" t="inlineStr"/>
+      <c r="F370" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="G370" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="H370" s="3" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I370" s="3" t="inlineStr"/>
+      <c r="J370" s="3" t="inlineStr"/>
+      <c r="K370" s="3" t="inlineStr">
+        <is>
+          <t>smokeless tobacco use</t>
+        </is>
+      </c>
+      <c r="L370" s="3" t="inlineStr"/>
+      <c r="M370" s="3" t="inlineStr"/>
+      <c r="N370" s="3" t="inlineStr"/>
+      <c r="O370" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P370" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q370" s="3" t="inlineStr"/>
+      <c r="R370" s="3" t="inlineStr">
+        <is>
+          <t>SC; RW</t>
+        </is>
+      </c>
+      <c r="S370" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T370" s="3" t="inlineStr"/>
+      <c r="U370" s="3" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000730</t>
         </is>
       </c>
-      <c r="B370" s="2" t="inlineStr">
+      <c r="B371" s="2" t="inlineStr">
         <is>
           <t>solitary drinking</t>
         </is>
       </c>
-      <c r="C370" s="2" t="inlineStr">
+      <c r="C371" s="2" t="inlineStr">
         <is>
           <t>Alcohol consumption in which the person consuming an alcohol-containing product does so with no-one else present in the same location.</t>
         </is>
       </c>
-      <c r="D370" s="2" t="inlineStr"/>
-      <c r="E370" s="2" t="inlineStr"/>
-      <c r="F370" s="2" t="inlineStr">
-        <is>
-          <t>alcohol consumption</t>
-        </is>
-      </c>
-      <c r="G370" s="2" t="inlineStr"/>
-      <c r="H370" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I370" s="2" t="inlineStr"/>
-      <c r="J370" s="2" t="inlineStr">
-        <is>
-          <t>This definition has been chosen because it is the most commonly encountered term in the research literature.</t>
-        </is>
-      </c>
-      <c r="K370" s="2" t="inlineStr"/>
-      <c r="L370" s="2" t="inlineStr"/>
-      <c r="M370" s="2" t="inlineStr">
-        <is>
-          <t>The definition would not count as solitary drinking alcohol consutmpsion in which there was someone present but not consuming alcohol</t>
-        </is>
-      </c>
-      <c r="N370" s="2" t="inlineStr">
-        <is>
-          <t>"Solitary drinking was defined as drinking while physically alone ".  Skrzynski CJ, Creswell KG. A systematic review and meta-analysis on solitary drinking in adults.</t>
-        </is>
-      </c>
-      <c r="O370" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P370" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q370" s="2" t="inlineStr"/>
-      <c r="R370" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="S370" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T370" s="2" t="inlineStr"/>
-      <c r="U370" s="2" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="2" t="inlineStr"/>
-      <c r="B371" s="2" t="inlineStr">
-        <is>
-          <t>stimulant drug use</t>
-        </is>
-      </c>
-      <c r="C371" s="2" t="inlineStr"/>
       <c r="D371" s="2" t="inlineStr"/>
       <c r="E371" s="2" t="inlineStr"/>
-      <c r="F371" s="2" t="inlineStr"/>
+      <c r="F371" s="2" t="inlineStr">
+        <is>
+          <t>alcohol consumption</t>
+        </is>
+      </c>
       <c r="G371" s="2" t="inlineStr"/>
       <c r="H371" s="2" t="inlineStr">
         <is>
@@ -19636,11 +19636,23 @@
         </is>
       </c>
       <c r="I371" s="2" t="inlineStr"/>
-      <c r="J371" s="2" t="inlineStr"/>
+      <c r="J371" s="2" t="inlineStr">
+        <is>
+          <t>This definition has been chosen because it is the most commonly encountered term in the research literature.</t>
+        </is>
+      </c>
       <c r="K371" s="2" t="inlineStr"/>
       <c r="L371" s="2" t="inlineStr"/>
-      <c r="M371" s="2" t="inlineStr"/>
-      <c r="N371" s="2" t="inlineStr"/>
+      <c r="M371" s="2" t="inlineStr">
+        <is>
+          <t>The definition would not count as solitary drinking alcohol consutmpsion in which there was someone present but not consuming alcohol</t>
+        </is>
+      </c>
+      <c r="N371" s="2" t="inlineStr">
+        <is>
+          <t>"Solitary drinking was defined as drinking while physically alone ".  Skrzynski CJ, Creswell KG. A systematic review and meta-analysis on solitary drinking in adults.</t>
+        </is>
+      </c>
       <c r="O371" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -19652,7 +19664,11 @@
         </is>
       </c>
       <c r="Q371" s="2" t="inlineStr"/>
-      <c r="R371" s="2" t="inlineStr"/>
+      <c r="R371" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="S371" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -19665,7 +19681,7 @@
       <c r="A372" s="2" t="inlineStr"/>
       <c r="B372" s="2" t="inlineStr">
         <is>
-          <t>stimulant specific driving under the influence of drugs (DUID)</t>
+          <t>stimulant drug use</t>
         </is>
       </c>
       <c r="C372" s="2" t="inlineStr"/>
@@ -19708,7 +19724,7 @@
       <c r="A373" s="2" t="inlineStr"/>
       <c r="B373" s="2" t="inlineStr">
         <is>
-          <t>subsequent drug use</t>
+          <t>stimulant specific driving under the influence of drugs (DUID)</t>
         </is>
       </c>
       <c r="C373" s="2" t="inlineStr"/>
@@ -19751,14 +19767,10 @@
       <c r="A374" s="2" t="inlineStr"/>
       <c r="B374" s="2" t="inlineStr">
         <is>
-          <t>substance misuse</t>
-        </is>
-      </c>
-      <c r="C374" s="2" t="inlineStr">
-        <is>
-          <t>Substance use that is judged to be problematic by a social group.</t>
-        </is>
-      </c>
+          <t>subsequent drug use</t>
+        </is>
+      </c>
+      <c r="C374" s="2" t="inlineStr"/>
       <c r="D374" s="2" t="inlineStr"/>
       <c r="E374" s="2" t="inlineStr"/>
       <c r="F374" s="2" t="inlineStr"/>
@@ -19772,11 +19784,7 @@
       <c r="J374" s="2" t="inlineStr"/>
       <c r="K374" s="2" t="inlineStr"/>
       <c r="L374" s="2" t="inlineStr"/>
-      <c r="M374" s="2" t="inlineStr">
-        <is>
-          <t>The judgement of misuse is relative to a social group. This does not mean something is substance misuse if it is judged to be problematic by any social group.</t>
-        </is>
-      </c>
+      <c r="M374" s="2" t="inlineStr"/>
       <c r="N374" s="2" t="inlineStr"/>
       <c r="O374" s="2" t="inlineStr">
         <is>
@@ -19799,136 +19807,132 @@
       <c r="U374" s="2" t="inlineStr"/>
     </row>
     <row r="375">
-      <c r="A375" s="3" t="inlineStr">
+      <c r="A375" s="2" t="inlineStr"/>
+      <c r="B375" s="2" t="inlineStr">
+        <is>
+          <t>substance misuse</t>
+        </is>
+      </c>
+      <c r="C375" s="2" t="inlineStr">
+        <is>
+          <t>Substance use that is judged to be problematic by a social group.</t>
+        </is>
+      </c>
+      <c r="D375" s="2" t="inlineStr"/>
+      <c r="E375" s="2" t="inlineStr"/>
+      <c r="F375" s="2" t="inlineStr"/>
+      <c r="G375" s="2" t="inlineStr"/>
+      <c r="H375" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I375" s="2" t="inlineStr"/>
+      <c r="J375" s="2" t="inlineStr"/>
+      <c r="K375" s="2" t="inlineStr"/>
+      <c r="L375" s="2" t="inlineStr"/>
+      <c r="M375" s="2" t="inlineStr">
+        <is>
+          <t>The judgement of misuse is relative to a social group. This does not mean something is substance misuse if it is judged to be problematic by any social group.</t>
+        </is>
+      </c>
+      <c r="N375" s="2" t="inlineStr"/>
+      <c r="O375" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P375" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q375" s="2" t="inlineStr"/>
+      <c r="R375" s="2" t="inlineStr"/>
+      <c r="S375" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T375" s="2" t="inlineStr"/>
+      <c r="U375" s="2" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000721</t>
         </is>
       </c>
-      <c r="B375" s="3" t="inlineStr">
+      <c r="B376" s="3" t="inlineStr">
         <is>
           <t>substance use</t>
         </is>
       </c>
-      <c r="C375" s="3" t="inlineStr">
+      <c r="C376" s="3" t="inlineStr">
         <is>
           <t>A consumption behaviour that involves ingesting a psychoactive substance.</t>
         </is>
       </c>
-      <c r="D375" s="3" t="inlineStr"/>
-      <c r="E375" s="3" t="inlineStr"/>
-      <c r="F375" s="3" t="inlineStr">
+      <c r="D376" s="3" t="inlineStr"/>
+      <c r="E376" s="3" t="inlineStr"/>
+      <c r="F376" s="3" t="inlineStr">
         <is>
           <t>consumption behaviour</t>
         </is>
       </c>
-      <c r="G375" s="3" t="inlineStr">
+      <c r="G376" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H375" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I375" s="3" t="inlineStr"/>
-      <c r="J375" s="3" t="inlineStr"/>
-      <c r="K375" s="3" t="inlineStr">
+      <c r="H376" s="3" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I376" s="3" t="inlineStr"/>
+      <c r="J376" s="3" t="inlineStr"/>
+      <c r="K376" s="3" t="inlineStr">
         <is>
           <t>psychoactive substance use</t>
         </is>
       </c>
-      <c r="L375" s="3" t="inlineStr"/>
-      <c r="M375" s="3" t="inlineStr"/>
-      <c r="N375" s="3" t="inlineStr"/>
-      <c r="O375" s="3" t="n">
+      <c r="L376" s="3" t="inlineStr"/>
+      <c r="M376" s="3" t="inlineStr"/>
+      <c r="N376" s="3" t="inlineStr"/>
+      <c r="O376" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P375" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q375" s="3" t="inlineStr"/>
-      <c r="R375" s="3" t="inlineStr">
+      <c r="P376" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q376" s="3" t="inlineStr"/>
+      <c r="R376" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="S375" s="3" t="inlineStr">
+      <c r="S376" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T375" s="3" t="inlineStr"/>
-      <c r="U375" s="3" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="2" t="inlineStr"/>
-      <c r="B376" s="2" t="inlineStr">
+      <c r="T376" s="3" t="inlineStr"/>
+      <c r="U376" s="3" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="inlineStr"/>
+      <c r="B377" s="2" t="inlineStr">
         <is>
           <t>substance use injecting practice</t>
         </is>
       </c>
-      <c r="C376" s="2" t="inlineStr"/>
-      <c r="D376" s="2" t="inlineStr"/>
-      <c r="E376" s="2" t="inlineStr"/>
-      <c r="F376" s="2" t="inlineStr"/>
-      <c r="G376" s="2" t="inlineStr"/>
-      <c r="H376" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I376" s="2" t="inlineStr"/>
-      <c r="J376" s="2" t="inlineStr"/>
-      <c r="K376" s="2" t="inlineStr"/>
-      <c r="L376" s="2" t="inlineStr"/>
-      <c r="M376" s="2" t="inlineStr"/>
-      <c r="N376" s="2" t="inlineStr"/>
-      <c r="O376" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P376" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q376" s="2" t="inlineStr"/>
-      <c r="R376" s="2" t="inlineStr"/>
-      <c r="S376" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T376" s="2" t="inlineStr"/>
-      <c r="U376" s="2" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000130</t>
-        </is>
-      </c>
-      <c r="B377" s="2" t="inlineStr">
-        <is>
-          <t>substance use pattern</t>
-        </is>
-      </c>
-      <c r="C377" s="2" t="inlineStr">
-        <is>
-          <t>A behaviour pattern involving ingestion of a psychoactive drug.</t>
-        </is>
-      </c>
+      <c r="C377" s="2" t="inlineStr"/>
       <c r="D377" s="2" t="inlineStr"/>
       <c r="E377" s="2" t="inlineStr"/>
-      <c r="F377" s="2" t="inlineStr">
-        <is>
-          <t>behaviour pattern</t>
-        </is>
-      </c>
+      <c r="F377" s="2" t="inlineStr"/>
       <c r="G377" s="2" t="inlineStr"/>
       <c r="H377" s="2" t="inlineStr">
         <is>
@@ -19937,11 +19941,7 @@
       </c>
       <c r="I377" s="2" t="inlineStr"/>
       <c r="J377" s="2" t="inlineStr"/>
-      <c r="K377" s="2" t="inlineStr">
-        <is>
-          <t>Drug use pattern</t>
-        </is>
-      </c>
+      <c r="K377" s="2" t="inlineStr"/>
       <c r="L377" s="2" t="inlineStr"/>
       <c r="M377" s="2" t="inlineStr"/>
       <c r="N377" s="2" t="inlineStr"/>
@@ -19966,16 +19966,28 @@
       <c r="U377" s="2" t="inlineStr"/>
     </row>
     <row r="378">
-      <c r="A378" s="2" t="inlineStr"/>
+      <c r="A378" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000130</t>
+        </is>
+      </c>
       <c r="B378" s="2" t="inlineStr">
         <is>
-          <t>substantiated maltreatment</t>
-        </is>
-      </c>
-      <c r="C378" s="2" t="inlineStr"/>
+          <t>substance use pattern</t>
+        </is>
+      </c>
+      <c r="C378" s="2" t="inlineStr">
+        <is>
+          <t>A behaviour pattern involving ingestion of a psychoactive drug.</t>
+        </is>
+      </c>
       <c r="D378" s="2" t="inlineStr"/>
       <c r="E378" s="2" t="inlineStr"/>
-      <c r="F378" s="2" t="inlineStr"/>
+      <c r="F378" s="2" t="inlineStr">
+        <is>
+          <t>behaviour pattern</t>
+        </is>
+      </c>
       <c r="G378" s="2" t="inlineStr"/>
       <c r="H378" s="2" t="inlineStr">
         <is>
@@ -19984,12 +19996,18 @@
       </c>
       <c r="I378" s="2" t="inlineStr"/>
       <c r="J378" s="2" t="inlineStr"/>
-      <c r="K378" s="2" t="inlineStr"/>
+      <c r="K378" s="2" t="inlineStr">
+        <is>
+          <t>Drug use pattern</t>
+        </is>
+      </c>
       <c r="L378" s="2" t="inlineStr"/>
       <c r="M378" s="2" t="inlineStr"/>
       <c r="N378" s="2" t="inlineStr"/>
-      <c r="O378" s="2" t="n">
-        <v>1</v>
+      <c r="O378" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P378" s="2" t="inlineStr">
         <is>
@@ -20010,7 +20028,7 @@
       <c r="A379" s="2" t="inlineStr"/>
       <c r="B379" s="2" t="inlineStr">
         <is>
-          <t>successful continuous abstinence</t>
+          <t>substantiated maltreatment</t>
         </is>
       </c>
       <c r="C379" s="2" t="inlineStr"/>
@@ -20029,10 +20047,8 @@
       <c r="L379" s="2" t="inlineStr"/>
       <c r="M379" s="2" t="inlineStr"/>
       <c r="N379" s="2" t="inlineStr"/>
-      <c r="O379" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O379" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P379" s="2" t="inlineStr">
         <is>
@@ -20053,14 +20069,10 @@
       <c r="A380" s="2" t="inlineStr"/>
       <c r="B380" s="2" t="inlineStr">
         <is>
-          <t>suicide</t>
-        </is>
-      </c>
-      <c r="C380" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour of a person leading intentionally to that person's death.</t>
-        </is>
-      </c>
+          <t>successful continuous abstinence</t>
+        </is>
+      </c>
+      <c r="C380" s="2" t="inlineStr"/>
       <c r="D380" s="2" t="inlineStr"/>
       <c r="E380" s="2" t="inlineStr"/>
       <c r="F380" s="2" t="inlineStr"/>
@@ -20100,10 +20112,14 @@
       <c r="A381" s="2" t="inlineStr"/>
       <c r="B381" s="2" t="inlineStr">
         <is>
-          <t>supervised opioid injection</t>
-        </is>
-      </c>
-      <c r="C381" s="2" t="inlineStr"/>
+          <t>suicide</t>
+        </is>
+      </c>
+      <c r="C381" s="2" t="inlineStr">
+        <is>
+          <t>Behaviour of a person leading intentionally to that person's death.</t>
+        </is>
+      </c>
       <c r="D381" s="2" t="inlineStr"/>
       <c r="E381" s="2" t="inlineStr"/>
       <c r="F381" s="2" t="inlineStr"/>
@@ -20143,14 +20159,10 @@
       <c r="A382" s="2" t="inlineStr"/>
       <c r="B382" s="2" t="inlineStr">
         <is>
-          <t>suspected suicide</t>
-        </is>
-      </c>
-      <c r="C382" s="2" t="inlineStr">
-        <is>
-          <t>A representation of a behaviour of a person in which that person is believed to have committed suicide.</t>
-        </is>
-      </c>
+          <t>supervised opioid injection</t>
+        </is>
+      </c>
+      <c r="C382" s="2" t="inlineStr"/>
       <c r="D382" s="2" t="inlineStr"/>
       <c r="E382" s="2" t="inlineStr"/>
       <c r="F382" s="2" t="inlineStr"/>
@@ -20190,10 +20202,14 @@
       <c r="A383" s="2" t="inlineStr"/>
       <c r="B383" s="2" t="inlineStr">
         <is>
-          <t>sustained abstinence</t>
-        </is>
-      </c>
-      <c r="C383" s="2" t="inlineStr"/>
+          <t>suspected suicide</t>
+        </is>
+      </c>
+      <c r="C383" s="2" t="inlineStr">
+        <is>
+          <t>A representation of a behaviour of a person in which that person is believed to have committed suicide.</t>
+        </is>
+      </c>
       <c r="D383" s="2" t="inlineStr"/>
       <c r="E383" s="2" t="inlineStr"/>
       <c r="F383" s="2" t="inlineStr"/>
@@ -20233,7 +20249,7 @@
       <c r="A384" s="2" t="inlineStr"/>
       <c r="B384" s="2" t="inlineStr">
         <is>
-          <t>sustained tobacco abstinence</t>
+          <t>sustained abstinence</t>
         </is>
       </c>
       <c r="C384" s="2" t="inlineStr"/>
@@ -20252,8 +20268,10 @@
       <c r="L384" s="2" t="inlineStr"/>
       <c r="M384" s="2" t="inlineStr"/>
       <c r="N384" s="2" t="inlineStr"/>
-      <c r="O384" s="2" t="n">
-        <v>1</v>
+      <c r="O384" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P384" s="2" t="inlineStr">
         <is>
@@ -20274,7 +20292,7 @@
       <c r="A385" s="2" t="inlineStr"/>
       <c r="B385" s="2" t="inlineStr">
         <is>
-          <t>switching to e-cigarette</t>
+          <t>sustained tobacco abstinence</t>
         </is>
       </c>
       <c r="C385" s="2" t="inlineStr"/>
@@ -20315,7 +20333,7 @@
       <c r="A386" s="2" t="inlineStr"/>
       <c r="B386" s="2" t="inlineStr">
         <is>
-          <t>temporary smoking cessation</t>
+          <t>switching to e-cigarette</t>
         </is>
       </c>
       <c r="C386" s="2" t="inlineStr"/>
@@ -20356,7 +20374,7 @@
       <c r="A387" s="2" t="inlineStr"/>
       <c r="B387" s="2" t="inlineStr">
         <is>
-          <t>therapeutic use</t>
+          <t>temporary smoking cessation</t>
         </is>
       </c>
       <c r="C387" s="2" t="inlineStr"/>
@@ -20375,10 +20393,8 @@
       <c r="L387" s="2" t="inlineStr"/>
       <c r="M387" s="2" t="inlineStr"/>
       <c r="N387" s="2" t="inlineStr"/>
-      <c r="O387" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O387" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P387" s="2" t="inlineStr">
         <is>
@@ -20399,7 +20415,7 @@
       <c r="A388" s="2" t="inlineStr"/>
       <c r="B388" s="2" t="inlineStr">
         <is>
-          <t>time to first cigarette of the day</t>
+          <t>therapeutic use</t>
         </is>
       </c>
       <c r="C388" s="2" t="inlineStr"/>
@@ -20418,8 +20434,10 @@
       <c r="L388" s="2" t="inlineStr"/>
       <c r="M388" s="2" t="inlineStr"/>
       <c r="N388" s="2" t="inlineStr"/>
-      <c r="O388" s="2" t="n">
-        <v>1</v>
+      <c r="O388" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P388" s="2" t="inlineStr">
         <is>
@@ -20440,7 +20458,7 @@
       <c r="A389" s="2" t="inlineStr"/>
       <c r="B389" s="2" t="inlineStr">
         <is>
-          <t>time to first e-cigarette use of the day</t>
+          <t>time to first cigarette of the day</t>
         </is>
       </c>
       <c r="C389" s="2" t="inlineStr"/>
@@ -20478,33 +20496,17 @@
       <c r="U389" s="2" t="inlineStr"/>
     </row>
     <row r="390">
-      <c r="A390" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000138</t>
-        </is>
-      </c>
+      <c r="A390" s="2" t="inlineStr"/>
       <c r="B390" s="2" t="inlineStr">
         <is>
-          <t>tobacco cessation</t>
-        </is>
-      </c>
-      <c r="C390" s="2" t="inlineStr">
-        <is>
-          <t>A process boundary that involves the end of a period of tobacco use.</t>
-        </is>
-      </c>
+          <t>time to first e-cigarette use of the day</t>
+        </is>
+      </c>
+      <c r="C390" s="2" t="inlineStr"/>
       <c r="D390" s="2" t="inlineStr"/>
       <c r="E390" s="2" t="inlineStr"/>
-      <c r="F390" s="2" t="inlineStr">
-        <is>
-          <t>process boundary</t>
-        </is>
-      </c>
-      <c r="G390" s="2" t="inlineStr">
-        <is>
-          <t>Process boundary</t>
-        </is>
-      </c>
+      <c r="F390" s="2" t="inlineStr"/>
+      <c r="G390" s="2" t="inlineStr"/>
       <c r="H390" s="2" t="inlineStr">
         <is>
           <t>Human behaviour</t>
@@ -20535,17 +20537,33 @@
       <c r="U390" s="2" t="inlineStr"/>
     </row>
     <row r="391">
-      <c r="A391" s="2" t="inlineStr"/>
+      <c r="A391" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000138</t>
+        </is>
+      </c>
       <c r="B391" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoke intake</t>
-        </is>
-      </c>
-      <c r="C391" s="2" t="inlineStr"/>
+          <t>tobacco cessation</t>
+        </is>
+      </c>
+      <c r="C391" s="2" t="inlineStr">
+        <is>
+          <t>A process boundary that involves the end of a period of tobacco use.</t>
+        </is>
+      </c>
       <c r="D391" s="2" t="inlineStr"/>
       <c r="E391" s="2" t="inlineStr"/>
-      <c r="F391" s="2" t="inlineStr"/>
-      <c r="G391" s="2" t="inlineStr"/>
+      <c r="F391" s="2" t="inlineStr">
+        <is>
+          <t>process boundary</t>
+        </is>
+      </c>
+      <c r="G391" s="2" t="inlineStr">
+        <is>
+          <t>Process boundary</t>
+        </is>
+      </c>
       <c r="H391" s="2" t="inlineStr">
         <is>
           <t>Human behaviour</t>
@@ -20576,149 +20594,145 @@
       <c r="U391" s="2" t="inlineStr"/>
     </row>
     <row r="392">
-      <c r="A392" s="3" t="inlineStr">
+      <c r="A392" s="2" t="inlineStr"/>
+      <c r="B392" s="2" t="inlineStr">
+        <is>
+          <t>tobacco smoke intake</t>
+        </is>
+      </c>
+      <c r="C392" s="2" t="inlineStr"/>
+      <c r="D392" s="2" t="inlineStr"/>
+      <c r="E392" s="2" t="inlineStr"/>
+      <c r="F392" s="2" t="inlineStr"/>
+      <c r="G392" s="2" t="inlineStr"/>
+      <c r="H392" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I392" s="2" t="inlineStr"/>
+      <c r="J392" s="2" t="inlineStr"/>
+      <c r="K392" s="2" t="inlineStr"/>
+      <c r="L392" s="2" t="inlineStr"/>
+      <c r="M392" s="2" t="inlineStr"/>
+      <c r="N392" s="2" t="inlineStr"/>
+      <c r="O392" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P392" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q392" s="2" t="inlineStr"/>
+      <c r="R392" s="2" t="inlineStr"/>
+      <c r="S392" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T392" s="2" t="inlineStr"/>
+      <c r="U392" s="2" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000652</t>
         </is>
       </c>
-      <c r="B392" s="3" t="inlineStr">
+      <c r="B393" s="3" t="inlineStr">
         <is>
           <t>tobacco smoking</t>
         </is>
       </c>
-      <c r="C392" s="3" t="inlineStr">
+      <c r="C393" s="3" t="inlineStr">
         <is>
           <t>Tobacco use that involves the use of a combustible tobacco-containing product.</t>
         </is>
       </c>
-      <c r="D392" s="3" t="inlineStr"/>
-      <c r="E392" s="3" t="inlineStr"/>
-      <c r="F392" s="3" t="inlineStr">
+      <c r="D393" s="3" t="inlineStr"/>
+      <c r="E393" s="3" t="inlineStr"/>
+      <c r="F393" s="3" t="inlineStr">
         <is>
           <t>tobacco use</t>
         </is>
       </c>
-      <c r="G392" s="3" t="inlineStr">
+      <c r="G393" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H392" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I392" s="3" t="inlineStr"/>
-      <c r="J392" s="3" t="inlineStr"/>
-      <c r="K392" s="3" t="inlineStr">
+      <c r="H393" s="3" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I393" s="3" t="inlineStr"/>
+      <c r="J393" s="3" t="inlineStr"/>
+      <c r="K393" s="3" t="inlineStr">
         <is>
           <t>combustible tobacco use</t>
         </is>
       </c>
-      <c r="L392" s="3" t="inlineStr"/>
-      <c r="M392" s="3" t="inlineStr"/>
-      <c r="N392" s="3" t="inlineStr"/>
-      <c r="O392" s="3" t="inlineStr">
+      <c r="L393" s="3" t="inlineStr"/>
+      <c r="M393" s="3" t="inlineStr"/>
+      <c r="N393" s="3" t="inlineStr"/>
+      <c r="O393" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="P392" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q392" s="3" t="inlineStr"/>
-      <c r="R392" s="3" t="inlineStr">
+      <c r="P393" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q393" s="3" t="inlineStr"/>
+      <c r="R393" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="S392" s="3" t="inlineStr">
+      <c r="S393" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T392" s="3" t="inlineStr"/>
-      <c r="U392" s="3" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="2" t="inlineStr">
+      <c r="T393" s="3" t="inlineStr"/>
+      <c r="U393" s="3" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000139</t>
         </is>
       </c>
-      <c r="B393" s="2" t="inlineStr">
+      <c r="B394" s="2" t="inlineStr">
         <is>
           <t>tobacco smoking abstinence</t>
         </is>
       </c>
-      <c r="C393" s="2" t="inlineStr">
+      <c r="C394" s="2" t="inlineStr">
         <is>
           <t>A personal quality that involves not smoking tobacco having previously done so.</t>
         </is>
       </c>
-      <c r="D393" s="2" t="inlineStr">
+      <c r="D394" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abstinence from the use of all tobacco containing products. </t>
         </is>
       </c>
-      <c r="E393" s="2" t="inlineStr"/>
-      <c r="F393" s="2" t="inlineStr">
+      <c r="E394" s="2" t="inlineStr"/>
+      <c r="F394" s="2" t="inlineStr">
         <is>
           <t>personal quality</t>
         </is>
       </c>
-      <c r="G393" s="2" t="inlineStr">
+      <c r="G394" s="2" t="inlineStr">
         <is>
           <t>Quality</t>
         </is>
       </c>
-      <c r="H393" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I393" s="2" t="inlineStr"/>
-      <c r="J393" s="2" t="inlineStr"/>
-      <c r="K393" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Smoking cessation; tobacco cessation; smoking abstinence; tobacco abstinence. </t>
-        </is>
-      </c>
-      <c r="L393" s="2" t="inlineStr"/>
-      <c r="M393" s="2" t="inlineStr"/>
-      <c r="N393" s="2" t="inlineStr"/>
-      <c r="O393" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P393" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q393" s="2" t="inlineStr"/>
-      <c r="R393" s="2" t="inlineStr"/>
-      <c r="S393" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T393" s="2" t="inlineStr"/>
-      <c r="U393" s="2" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="2" t="inlineStr"/>
-      <c r="B394" s="2" t="inlineStr">
-        <is>
-          <t>tobacco smoking prevalence</t>
-        </is>
-      </c>
-      <c r="C394" s="2" t="inlineStr"/>
-      <c r="D394" s="2" t="inlineStr"/>
-      <c r="E394" s="2" t="inlineStr"/>
-      <c r="F394" s="2" t="inlineStr"/>
-      <c r="G394" s="2" t="inlineStr"/>
       <c r="H394" s="2" t="inlineStr">
         <is>
           <t>Human behaviour</t>
@@ -20726,7 +20740,11 @@
       </c>
       <c r="I394" s="2" t="inlineStr"/>
       <c r="J394" s="2" t="inlineStr"/>
-      <c r="K394" s="2" t="inlineStr"/>
+      <c r="K394" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Smoking cessation; tobacco cessation; smoking abstinence; tobacco abstinence. </t>
+        </is>
+      </c>
       <c r="L394" s="2" t="inlineStr"/>
       <c r="M394" s="2" t="inlineStr"/>
       <c r="N394" s="2" t="inlineStr"/>
@@ -20749,28 +20767,16 @@
       <c r="U394" s="2" t="inlineStr"/>
     </row>
     <row r="395">
-      <c r="A395" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000140</t>
-        </is>
-      </c>
+      <c r="A395" s="2" t="inlineStr"/>
       <c r="B395" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking relapse</t>
-        </is>
-      </c>
-      <c r="C395" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Behavioural relapse that involves tobacco smoking. </t>
-        </is>
-      </c>
+          <t>tobacco smoking prevalence</t>
+        </is>
+      </c>
+      <c r="C395" s="2" t="inlineStr"/>
       <c r="D395" s="2" t="inlineStr"/>
       <c r="E395" s="2" t="inlineStr"/>
-      <c r="F395" s="2" t="inlineStr">
-        <is>
-          <t>behavioural relapse</t>
-        </is>
-      </c>
+      <c r="F395" s="2" t="inlineStr"/>
       <c r="G395" s="2" t="inlineStr"/>
       <c r="H395" s="2" t="inlineStr">
         <is>
@@ -20802,254 +20808,264 @@
       <c r="U395" s="2" t="inlineStr"/>
     </row>
     <row r="396">
-      <c r="A396" s="3" t="inlineStr">
+      <c r="A396" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000140</t>
+        </is>
+      </c>
+      <c r="B396" s="2" t="inlineStr">
+        <is>
+          <t>tobacco smoking relapse</t>
+        </is>
+      </c>
+      <c r="C396" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Behavioural relapse that involves tobacco smoking. </t>
+        </is>
+      </c>
+      <c r="D396" s="2" t="inlineStr"/>
+      <c r="E396" s="2" t="inlineStr"/>
+      <c r="F396" s="2" t="inlineStr">
+        <is>
+          <t>behavioural relapse</t>
+        </is>
+      </c>
+      <c r="G396" s="2" t="inlineStr"/>
+      <c r="H396" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I396" s="2" t="inlineStr"/>
+      <c r="J396" s="2" t="inlineStr"/>
+      <c r="K396" s="2" t="inlineStr"/>
+      <c r="L396" s="2" t="inlineStr"/>
+      <c r="M396" s="2" t="inlineStr"/>
+      <c r="N396" s="2" t="inlineStr"/>
+      <c r="O396" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P396" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q396" s="2" t="inlineStr"/>
+      <c r="R396" s="2" t="inlineStr"/>
+      <c r="S396" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T396" s="2" t="inlineStr"/>
+      <c r="U396" s="2" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000712</t>
         </is>
       </c>
-      <c r="B396" s="3" t="inlineStr">
+      <c r="B397" s="3" t="inlineStr">
         <is>
           <t>tobacco use</t>
         </is>
       </c>
-      <c r="C396" s="3" t="inlineStr">
+      <c r="C397" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Substance use that involves the use of a tobacco-containing product. </t>
         </is>
       </c>
-      <c r="D396" s="3" t="inlineStr"/>
-      <c r="E396" s="3" t="inlineStr"/>
-      <c r="F396" s="3" t="inlineStr">
+      <c r="D397" s="3" t="inlineStr"/>
+      <c r="E397" s="3" t="inlineStr"/>
+      <c r="F397" s="3" t="inlineStr">
         <is>
           <t>substance use</t>
         </is>
       </c>
-      <c r="G396" s="3" t="inlineStr">
+      <c r="G397" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H396" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I396" s="3" t="inlineStr"/>
-      <c r="J396" s="3" t="inlineStr"/>
-      <c r="K396" s="3" t="inlineStr">
+      <c r="H397" s="3" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I397" s="3" t="inlineStr"/>
+      <c r="J397" s="3" t="inlineStr"/>
+      <c r="K397" s="3" t="inlineStr">
         <is>
           <t>tobacco consumption</t>
         </is>
       </c>
-      <c r="L396" s="3" t="inlineStr"/>
-      <c r="M396" s="3" t="inlineStr"/>
-      <c r="N396" s="3" t="inlineStr"/>
-      <c r="O396" s="3" t="n">
+      <c r="L397" s="3" t="inlineStr"/>
+      <c r="M397" s="3" t="inlineStr"/>
+      <c r="N397" s="3" t="inlineStr"/>
+      <c r="O397" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P396" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q396" s="3" t="inlineStr"/>
-      <c r="R396" s="3" t="inlineStr">
+      <c r="P397" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q397" s="3" t="inlineStr"/>
+      <c r="R397" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="S396" s="3" t="inlineStr">
+      <c r="S397" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T396" s="3" t="inlineStr"/>
-      <c r="U396" s="3" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="2" t="inlineStr">
+      <c r="T397" s="3" t="inlineStr"/>
+      <c r="U397" s="3" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000104</t>
         </is>
       </c>
-      <c r="B397" s="2" t="inlineStr">
+      <c r="B398" s="2" t="inlineStr">
         <is>
           <t>tobacco use abstinence</t>
         </is>
       </c>
-      <c r="C397" s="2" t="inlineStr">
+      <c r="C398" s="2" t="inlineStr">
         <is>
           <t>A personal history that does not include tobacco use.</t>
         </is>
       </c>
-      <c r="D397" s="2" t="inlineStr">
+      <c r="D398" s="2" t="inlineStr">
         <is>
           <t>Not using tobacco for a period of time.</t>
         </is>
       </c>
-      <c r="E397" s="2" t="inlineStr"/>
-      <c r="F397" s="2" t="inlineStr">
+      <c r="E398" s="2" t="inlineStr"/>
+      <c r="F398" s="2" t="inlineStr">
         <is>
           <t>history</t>
         </is>
       </c>
-      <c r="G397" s="2" t="inlineStr">
+      <c r="G398" s="2" t="inlineStr">
         <is>
           <t>personal history</t>
         </is>
       </c>
-      <c r="H397" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I397" s="2" t="inlineStr"/>
-      <c r="J397" s="2" t="inlineStr"/>
-      <c r="K397" s="2" t="inlineStr"/>
-      <c r="L397" s="2" t="inlineStr"/>
-      <c r="M397" s="2" t="inlineStr">
+      <c r="H398" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I398" s="2" t="inlineStr"/>
+      <c r="J398" s="2" t="inlineStr"/>
+      <c r="K398" s="2" t="inlineStr"/>
+      <c r="L398" s="2" t="inlineStr"/>
+      <c r="M398" s="2" t="inlineStr">
         <is>
           <t>Abstinence only has any meaning when specifying what the behaviour is that the person is not doing.</t>
         </is>
       </c>
-      <c r="N397" s="2" t="inlineStr"/>
-      <c r="O397" s="2" t="n">
+      <c r="N398" s="2" t="inlineStr"/>
+      <c r="O398" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P397" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q397" s="2" t="inlineStr"/>
-      <c r="R397" s="2" t="inlineStr">
+      <c r="P398" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q398" s="2" t="inlineStr"/>
+      <c r="R398" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="S397" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T397" s="2" t="inlineStr"/>
-      <c r="U397" s="2" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="3" t="inlineStr">
+      <c r="S398" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T398" s="2" t="inlineStr"/>
+      <c r="U398" s="2" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001025</t>
         </is>
       </c>
-      <c r="B398" s="3" t="inlineStr">
+      <c r="B399" s="3" t="inlineStr">
         <is>
           <t>tobacco use behaviour pattern</t>
         </is>
       </c>
-      <c r="C398" s="3" t="inlineStr">
+      <c r="C399" s="3" t="inlineStr">
         <is>
           <t>Substance use behaviour pattern that involves the use of a tobacco-containing product</t>
         </is>
       </c>
-      <c r="D398" s="3" t="inlineStr"/>
-      <c r="E398" s="3" t="inlineStr"/>
-      <c r="F398" s="3" t="inlineStr">
+      <c r="D399" s="3" t="inlineStr"/>
+      <c r="E399" s="3" t="inlineStr"/>
+      <c r="F399" s="3" t="inlineStr">
         <is>
           <t>substance use  behaviour pattern</t>
         </is>
       </c>
-      <c r="G398" s="3" t="inlineStr">
+      <c r="G399" s="3" t="inlineStr">
         <is>
           <t>process aggregate</t>
         </is>
       </c>
-      <c r="H398" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I398" s="3" t="inlineStr"/>
-      <c r="J398" s="3" t="inlineStr"/>
-      <c r="K398" s="3" t="inlineStr">
+      <c r="H399" s="3" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I399" s="3" t="inlineStr"/>
+      <c r="J399" s="3" t="inlineStr"/>
+      <c r="K399" s="3" t="inlineStr">
         <is>
           <t>tobacco use</t>
         </is>
       </c>
-      <c r="L398" s="3" t="inlineStr"/>
-      <c r="M398" s="3" t="inlineStr"/>
-      <c r="N398" s="3" t="inlineStr"/>
-      <c r="O398" s="3" t="inlineStr">
+      <c r="L399" s="3" t="inlineStr"/>
+      <c r="M399" s="3" t="inlineStr"/>
+      <c r="N399" s="3" t="inlineStr"/>
+      <c r="O399" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="P398" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q398" s="3" t="inlineStr"/>
-      <c r="R398" s="3" t="inlineStr">
+      <c r="P399" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q399" s="3" t="inlineStr"/>
+      <c r="R399" s="3" t="inlineStr">
         <is>
           <t>KS; RW</t>
         </is>
       </c>
-      <c r="S398" s="3" t="inlineStr">
+      <c r="S399" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T398" s="3" t="inlineStr"/>
-      <c r="U398" s="3" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="2" t="inlineStr"/>
-      <c r="B399" s="2" t="inlineStr">
-        <is>
-          <t>total alcohol abstinence</t>
-        </is>
-      </c>
-      <c r="C399" s="2" t="inlineStr"/>
-      <c r="D399" s="2" t="inlineStr"/>
-      <c r="E399" s="2" t="inlineStr"/>
-      <c r="F399" s="2" t="inlineStr"/>
-      <c r="G399" s="2" t="inlineStr"/>
-      <c r="H399" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I399" s="2" t="inlineStr"/>
-      <c r="J399" s="2" t="inlineStr"/>
-      <c r="K399" s="2" t="inlineStr"/>
-      <c r="L399" s="2" t="inlineStr"/>
-      <c r="M399" s="2" t="inlineStr"/>
-      <c r="N399" s="2" t="inlineStr"/>
-      <c r="O399" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P399" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q399" s="2" t="inlineStr"/>
-      <c r="R399" s="2" t="inlineStr"/>
-      <c r="S399" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T399" s="2" t="inlineStr"/>
-      <c r="U399" s="2" t="inlineStr"/>
+      <c r="T399" s="3" t="inlineStr"/>
+      <c r="U399" s="3" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="2" t="inlineStr"/>
       <c r="B400" s="2" t="inlineStr">
         <is>
-          <t>total puffing time</t>
+          <t>total alcohol abstinence</t>
         </is>
       </c>
       <c r="C400" s="2" t="inlineStr"/>
@@ -21068,8 +21084,10 @@
       <c r="L400" s="2" t="inlineStr"/>
       <c r="M400" s="2" t="inlineStr"/>
       <c r="N400" s="2" t="inlineStr"/>
-      <c r="O400" s="2" t="n">
-        <v>1</v>
+      <c r="O400" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P400" s="2" t="inlineStr">
         <is>
@@ -21087,14 +21105,10 @@
       <c r="U400" s="2" t="inlineStr"/>
     </row>
     <row r="401">
-      <c r="A401" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000520</t>
-        </is>
-      </c>
+      <c r="A401" s="2" t="inlineStr"/>
       <c r="B401" s="2" t="inlineStr">
         <is>
-          <t>traffic accident</t>
+          <t>total puffing time</t>
         </is>
       </c>
       <c r="C401" s="2" t="inlineStr"/>
@@ -21109,18 +21123,12 @@
       </c>
       <c r="I401" s="2" t="inlineStr"/>
       <c r="J401" s="2" t="inlineStr"/>
-      <c r="K401" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle collision; vehicle crash</t>
-        </is>
-      </c>
+      <c r="K401" s="2" t="inlineStr"/>
       <c r="L401" s="2" t="inlineStr"/>
       <c r="M401" s="2" t="inlineStr"/>
       <c r="N401" s="2" t="inlineStr"/>
-      <c r="O401" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O401" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P401" s="2" t="inlineStr">
         <is>
@@ -21138,10 +21146,14 @@
       <c r="U401" s="2" t="inlineStr"/>
     </row>
     <row r="402">
-      <c r="A402" s="2" t="inlineStr"/>
+      <c r="A402" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000520</t>
+        </is>
+      </c>
       <c r="B402" s="2" t="inlineStr">
         <is>
-          <t>treatment completion rate</t>
+          <t>traffic accident</t>
         </is>
       </c>
       <c r="C402" s="2" t="inlineStr"/>
@@ -21156,7 +21168,11 @@
       </c>
       <c r="I402" s="2" t="inlineStr"/>
       <c r="J402" s="2" t="inlineStr"/>
-      <c r="K402" s="2" t="inlineStr"/>
+      <c r="K402" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle collision; vehicle crash</t>
+        </is>
+      </c>
       <c r="L402" s="2" t="inlineStr"/>
       <c r="M402" s="2" t="inlineStr"/>
       <c r="N402" s="2" t="inlineStr"/>
@@ -21184,7 +21200,7 @@
       <c r="A403" s="2" t="inlineStr"/>
       <c r="B403" s="2" t="inlineStr">
         <is>
-          <t>treatment discontinuation by client</t>
+          <t>treatment completion rate</t>
         </is>
       </c>
       <c r="C403" s="2" t="inlineStr"/>
@@ -21227,7 +21243,7 @@
       <c r="A404" s="2" t="inlineStr"/>
       <c r="B404" s="2" t="inlineStr">
         <is>
-          <t>treatment utilisation</t>
+          <t>treatment discontinuation by client</t>
         </is>
       </c>
       <c r="C404" s="2" t="inlineStr"/>
@@ -21270,7 +21286,7 @@
       <c r="A405" s="2" t="inlineStr"/>
       <c r="B405" s="2" t="inlineStr">
         <is>
-          <t>triple use of alcohol, cannabis and cocaine</t>
+          <t>treatment utilisation</t>
         </is>
       </c>
       <c r="C405" s="2" t="inlineStr"/>
@@ -21313,7 +21329,7 @@
       <c r="A406" s="2" t="inlineStr"/>
       <c r="B406" s="2" t="inlineStr">
         <is>
-          <t>truancy</t>
+          <t>triple use of alcohol, cannabis and cocaine</t>
         </is>
       </c>
       <c r="C406" s="2" t="inlineStr"/>
@@ -21356,7 +21372,7 @@
       <c r="A407" s="2" t="inlineStr"/>
       <c r="B407" s="2" t="inlineStr">
         <is>
-          <t>underage gambling</t>
+          <t>truancy</t>
         </is>
       </c>
       <c r="C407" s="2" t="inlineStr"/>
@@ -21399,7 +21415,7 @@
       <c r="A408" s="2" t="inlineStr"/>
       <c r="B408" s="2" t="inlineStr">
         <is>
-          <t>units of alcohol consumed</t>
+          <t>underage gambling</t>
         </is>
       </c>
       <c r="C408" s="2" t="inlineStr"/>
@@ -21442,7 +21458,7 @@
       <c r="A409" s="2" t="inlineStr"/>
       <c r="B409" s="2" t="inlineStr">
         <is>
-          <t>units of alcohol consumed per month</t>
+          <t>units of alcohol consumed</t>
         </is>
       </c>
       <c r="C409" s="2" t="inlineStr"/>
@@ -21485,7 +21501,7 @@
       <c r="A410" s="2" t="inlineStr"/>
       <c r="B410" s="2" t="inlineStr">
         <is>
-          <t>units of alcohol consumed per week</t>
+          <t>units of alcohol consumed per month</t>
         </is>
       </c>
       <c r="C410" s="2" t="inlineStr"/>
@@ -21528,7 +21544,7 @@
       <c r="A411" s="2" t="inlineStr"/>
       <c r="B411" s="2" t="inlineStr">
         <is>
-          <t>unsafe injecting practices</t>
+          <t>units of alcohol consumed per week</t>
         </is>
       </c>
       <c r="C411" s="2" t="inlineStr"/>
@@ -21571,7 +21587,7 @@
       <c r="A412" s="2" t="inlineStr"/>
       <c r="B412" s="2" t="inlineStr">
         <is>
-          <t>uptake of a behaviour</t>
+          <t>unsafe injecting practices</t>
         </is>
       </c>
       <c r="C412" s="2" t="inlineStr"/>
@@ -21614,7 +21630,7 @@
       <c r="A413" s="2" t="inlineStr"/>
       <c r="B413" s="2" t="inlineStr">
         <is>
-          <t>use for pleasure</t>
+          <t>uptake of a behaviour</t>
         </is>
       </c>
       <c r="C413" s="2" t="inlineStr"/>
@@ -21657,17 +21673,13 @@
       <c r="A414" s="2" t="inlineStr"/>
       <c r="B414" s="2" t="inlineStr">
         <is>
-          <t>vaping cessation</t>
+          <t>use for pleasure</t>
         </is>
       </c>
       <c r="C414" s="2" t="inlineStr"/>
       <c r="D414" s="2" t="inlineStr"/>
       <c r="E414" s="2" t="inlineStr"/>
-      <c r="F414" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vaping pattern </t>
-        </is>
-      </c>
+      <c r="F414" s="2" t="inlineStr"/>
       <c r="G414" s="2" t="inlineStr"/>
       <c r="H414" s="2" t="inlineStr">
         <is>
@@ -21680,8 +21692,10 @@
       <c r="L414" s="2" t="inlineStr"/>
       <c r="M414" s="2" t="inlineStr"/>
       <c r="N414" s="2" t="inlineStr"/>
-      <c r="O414" s="2" t="n">
-        <v>1</v>
+      <c r="O414" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P414" s="2" t="inlineStr">
         <is>
@@ -21689,11 +21703,7 @@
         </is>
       </c>
       <c r="Q414" s="2" t="inlineStr"/>
-      <c r="R414" s="2" t="inlineStr">
-        <is>
-          <t>KS</t>
-        </is>
-      </c>
+      <c r="R414" s="2" t="inlineStr"/>
       <c r="S414" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -21703,142 +21713,134 @@
       <c r="U414" s="2" t="inlineStr"/>
     </row>
     <row r="415">
-      <c r="A415" s="3" t="inlineStr">
+      <c r="A415" s="2" t="inlineStr"/>
+      <c r="B415" s="2" t="inlineStr">
+        <is>
+          <t>vaping cessation</t>
+        </is>
+      </c>
+      <c r="C415" s="2" t="inlineStr"/>
+      <c r="D415" s="2" t="inlineStr"/>
+      <c r="E415" s="2" t="inlineStr"/>
+      <c r="F415" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vaping pattern </t>
+        </is>
+      </c>
+      <c r="G415" s="2" t="inlineStr"/>
+      <c r="H415" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I415" s="2" t="inlineStr"/>
+      <c r="J415" s="2" t="inlineStr"/>
+      <c r="K415" s="2" t="inlineStr"/>
+      <c r="L415" s="2" t="inlineStr"/>
+      <c r="M415" s="2" t="inlineStr"/>
+      <c r="N415" s="2" t="inlineStr"/>
+      <c r="O415" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P415" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q415" s="2" t="inlineStr"/>
+      <c r="R415" s="2" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="S415" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T415" s="2" t="inlineStr"/>
+      <c r="U415" s="2" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001230</t>
         </is>
       </c>
-      <c r="B415" s="3" t="inlineStr">
+      <c r="B416" s="3" t="inlineStr">
         <is>
           <t>vaping device use</t>
         </is>
       </c>
-      <c r="C415" s="3" t="inlineStr">
+      <c r="C416" s="3" t="inlineStr">
         <is>
           <t>Inhaling behaviour that involves the use of a vaping device.</t>
         </is>
       </c>
-      <c r="D415" s="3" t="inlineStr"/>
-      <c r="E415" s="3" t="inlineStr"/>
-      <c r="F415" s="3" t="inlineStr">
+      <c r="D416" s="3" t="inlineStr"/>
+      <c r="E416" s="3" t="inlineStr"/>
+      <c r="F416" s="3" t="inlineStr">
         <is>
           <t>inhaling behaviour</t>
         </is>
       </c>
-      <c r="G415" s="3" t="inlineStr">
+      <c r="G416" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H415" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I415" s="3" t="inlineStr"/>
-      <c r="J415" s="3" t="inlineStr"/>
-      <c r="K415" s="3" t="inlineStr">
+      <c r="H416" s="3" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I416" s="3" t="inlineStr"/>
+      <c r="J416" s="3" t="inlineStr"/>
+      <c r="K416" s="3" t="inlineStr">
         <is>
           <t>vaping</t>
         </is>
       </c>
-      <c r="L415" s="3" t="inlineStr"/>
-      <c r="M415" s="3" t="inlineStr"/>
-      <c r="N415" s="3" t="inlineStr"/>
-      <c r="O415" s="3" t="inlineStr">
+      <c r="L416" s="3" t="inlineStr"/>
+      <c r="M416" s="3" t="inlineStr"/>
+      <c r="N416" s="3" t="inlineStr"/>
+      <c r="O416" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="P415" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q415" s="3" t="inlineStr"/>
-      <c r="R415" s="3" t="inlineStr">
+      <c r="P416" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q416" s="3" t="inlineStr"/>
+      <c r="R416" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="S415" s="3" t="inlineStr">
+      <c r="S416" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T415" s="3" t="inlineStr"/>
-      <c r="U415" s="3" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="2" t="inlineStr"/>
-      <c r="B416" s="2" t="inlineStr">
+      <c r="T416" s="3" t="inlineStr"/>
+      <c r="U416" s="3" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="inlineStr"/>
+      <c r="B417" s="2" t="inlineStr">
         <is>
           <t>vaping initiation</t>
         </is>
       </c>
-      <c r="C416" s="2" t="inlineStr"/>
-      <c r="D416" s="2" t="inlineStr"/>
-      <c r="E416" s="2" t="inlineStr"/>
-      <c r="F416" s="2" t="inlineStr">
-        <is>
-          <t>vaping pattern</t>
-        </is>
-      </c>
-      <c r="G416" s="2" t="inlineStr"/>
-      <c r="H416" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I416" s="2" t="inlineStr"/>
-      <c r="J416" s="2" t="inlineStr"/>
-      <c r="K416" s="2" t="inlineStr"/>
-      <c r="L416" s="2" t="inlineStr"/>
-      <c r="M416" s="2" t="inlineStr"/>
-      <c r="N416" s="2" t="inlineStr"/>
-      <c r="O416" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P416" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q416" s="2" t="inlineStr"/>
-      <c r="R416" s="2" t="inlineStr">
-        <is>
-          <t>KS</t>
-        </is>
-      </c>
-      <c r="S416" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T416" s="2" t="inlineStr"/>
-      <c r="U416" s="2" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001026</t>
-        </is>
-      </c>
-      <c r="B417" s="2" t="inlineStr">
-        <is>
-          <t>vaping pattern</t>
-        </is>
-      </c>
-      <c r="C417" s="2" t="inlineStr">
-        <is>
-          <t>A behaviour pattern involving a vaping product.</t>
-        </is>
-      </c>
+      <c r="C417" s="2" t="inlineStr"/>
       <c r="D417" s="2" t="inlineStr"/>
       <c r="E417" s="2" t="inlineStr"/>
       <c r="F417" s="2" t="inlineStr">
         <is>
-          <t>behaviour pattern</t>
+          <t>vaping pattern</t>
         </is>
       </c>
       <c r="G417" s="2" t="inlineStr"/>
@@ -21876,20 +21878,28 @@
       <c r="U417" s="2" t="inlineStr"/>
     </row>
     <row r="418">
-      <c r="A418" s="2" t="inlineStr"/>
+      <c r="A418" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001026</t>
+        </is>
+      </c>
       <c r="B418" s="2" t="inlineStr">
         <is>
-          <t>vaping session</t>
+          <t>vaping pattern</t>
         </is>
       </c>
       <c r="C418" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A behaviour pattern involving a vaping product.</t>
         </is>
       </c>
       <c r="D418" s="2" t="inlineStr"/>
       <c r="E418" s="2" t="inlineStr"/>
-      <c r="F418" s="2" t="inlineStr"/>
+      <c r="F418" s="2" t="inlineStr">
+        <is>
+          <t>behaviour pattern</t>
+        </is>
+      </c>
       <c r="G418" s="2" t="inlineStr"/>
       <c r="H418" s="2" t="inlineStr">
         <is>
@@ -21913,7 +21923,7 @@
       <c r="Q418" s="2" t="inlineStr"/>
       <c r="R418" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="S418" s="2" t="inlineStr">
@@ -21928,10 +21938,14 @@
       <c r="A419" s="2" t="inlineStr"/>
       <c r="B419" s="2" t="inlineStr">
         <is>
-          <t>vaping trajectory</t>
-        </is>
-      </c>
-      <c r="C419" s="2" t="inlineStr"/>
+          <t>vaping session</t>
+        </is>
+      </c>
+      <c r="C419" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D419" s="2" t="inlineStr"/>
       <c r="E419" s="2" t="inlineStr"/>
       <c r="F419" s="2" t="inlineStr"/>
@@ -21956,7 +21970,11 @@
         </is>
       </c>
       <c r="Q419" s="2" t="inlineStr"/>
-      <c r="R419" s="2" t="inlineStr"/>
+      <c r="R419" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="S419" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -21969,7 +21987,7 @@
       <c r="A420" s="2" t="inlineStr"/>
       <c r="B420" s="2" t="inlineStr">
         <is>
-          <t>violent behaviour</t>
+          <t>vaping trajectory</t>
         </is>
       </c>
       <c r="C420" s="2" t="inlineStr"/>
@@ -21988,10 +22006,8 @@
       <c r="L420" s="2" t="inlineStr"/>
       <c r="M420" s="2" t="inlineStr"/>
       <c r="N420" s="2" t="inlineStr"/>
-      <c r="O420" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O420" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P420" s="2" t="inlineStr">
         <is>
@@ -22012,7 +22028,7 @@
       <c r="A421" s="2" t="inlineStr"/>
       <c r="B421" s="2" t="inlineStr">
         <is>
-          <t>waterpipe smoking</t>
+          <t>violent behaviour</t>
         </is>
       </c>
       <c r="C421" s="2" t="inlineStr"/>
@@ -22055,7 +22071,7 @@
       <c r="A422" s="2" t="inlineStr"/>
       <c r="B422" s="2" t="inlineStr">
         <is>
-          <t>waterpipe tobacco smoking</t>
+          <t>waterpipe smoking</t>
         </is>
       </c>
       <c r="C422" s="2" t="inlineStr"/>
@@ -22098,7 +22114,7 @@
       <c r="A423" s="2" t="inlineStr"/>
       <c r="B423" s="2" t="inlineStr">
         <is>
-          <t>weekly alcohol use</t>
+          <t>waterpipe tobacco smoking</t>
         </is>
       </c>
       <c r="C423" s="2" t="inlineStr"/>
@@ -22141,7 +22157,7 @@
       <c r="A424" s="2" t="inlineStr"/>
       <c r="B424" s="2" t="inlineStr">
         <is>
-          <t>weekly cigarette use</t>
+          <t>weekly alcohol use</t>
         </is>
       </c>
       <c r="C424" s="2" t="inlineStr"/>
@@ -22160,8 +22176,10 @@
       <c r="L424" s="2" t="inlineStr"/>
       <c r="M424" s="2" t="inlineStr"/>
       <c r="N424" s="2" t="inlineStr"/>
-      <c r="O424" s="2" t="n">
-        <v>1</v>
+      <c r="O424" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P424" s="2" t="inlineStr">
         <is>
@@ -22182,7 +22200,7 @@
       <c r="A425" s="2" t="inlineStr"/>
       <c r="B425" s="2" t="inlineStr">
         <is>
-          <t>weekly e-cigarette use</t>
+          <t>weekly cigarette use</t>
         </is>
       </c>
       <c r="C425" s="2" t="inlineStr"/>
@@ -22220,33 +22238,17 @@
       <c r="U425" s="2" t="inlineStr"/>
     </row>
     <row r="426">
-      <c r="A426" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000141</t>
-        </is>
-      </c>
+      <c r="A426" s="2" t="inlineStr"/>
       <c r="B426" s="2" t="inlineStr">
         <is>
-          <t>work absence</t>
-        </is>
-      </c>
-      <c r="C426" s="2" t="inlineStr">
-        <is>
-          <t>Not attending for paid employment but not on annual leave.</t>
-        </is>
-      </c>
+          <t>weekly e-cigarette use</t>
+        </is>
+      </c>
+      <c r="C426" s="2" t="inlineStr"/>
       <c r="D426" s="2" t="inlineStr"/>
       <c r="E426" s="2" t="inlineStr"/>
-      <c r="F426" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="G426" s="2" t="inlineStr">
-        <is>
-          <t>Occurrent</t>
-        </is>
-      </c>
+      <c r="F426" s="2" t="inlineStr"/>
+      <c r="G426" s="2" t="inlineStr"/>
       <c r="H426" s="2" t="inlineStr">
         <is>
           <t>Human behaviour</t>
@@ -22258,10 +22260,8 @@
       <c r="L426" s="2" t="inlineStr"/>
       <c r="M426" s="2" t="inlineStr"/>
       <c r="N426" s="2" t="inlineStr"/>
-      <c r="O426" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O426" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P426" s="2" t="inlineStr">
         <is>
@@ -22279,17 +22279,33 @@
       <c r="U426" s="2" t="inlineStr"/>
     </row>
     <row r="427">
-      <c r="A427" s="2" t="inlineStr"/>
+      <c r="A427" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000141</t>
+        </is>
+      </c>
       <c r="B427" s="2" t="inlineStr">
         <is>
-          <t>youth alcohol consumption</t>
-        </is>
-      </c>
-      <c r="C427" s="2" t="inlineStr"/>
+          <t>work absence</t>
+        </is>
+      </c>
+      <c r="C427" s="2" t="inlineStr">
+        <is>
+          <t>Not attending for paid employment but not on annual leave.</t>
+        </is>
+      </c>
       <c r="D427" s="2" t="inlineStr"/>
       <c r="E427" s="2" t="inlineStr"/>
-      <c r="F427" s="2" t="inlineStr"/>
-      <c r="G427" s="2" t="inlineStr"/>
+      <c r="F427" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="G427" s="2" t="inlineStr">
+        <is>
+          <t>Occurrent</t>
+        </is>
+      </c>
       <c r="H427" s="2" t="inlineStr">
         <is>
           <t>Human behaviour</t>
@@ -22325,7 +22341,7 @@
       <c r="A428" s="2" t="inlineStr"/>
       <c r="B428" s="2" t="inlineStr">
         <is>
-          <t>youth e-cigarette use</t>
+          <t>youth alcohol consumption</t>
         </is>
       </c>
       <c r="C428" s="2" t="inlineStr"/>
@@ -22344,8 +22360,10 @@
       <c r="L428" s="2" t="inlineStr"/>
       <c r="M428" s="2" t="inlineStr"/>
       <c r="N428" s="2" t="inlineStr"/>
-      <c r="O428" s="2" t="n">
-        <v>1</v>
+      <c r="O428" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P428" s="2" t="inlineStr">
         <is>
@@ -22366,7 +22384,7 @@
       <c r="A429" s="2" t="inlineStr"/>
       <c r="B429" s="2" t="inlineStr">
         <is>
-          <t>youth uptake of e-cigarettes</t>
+          <t>youth e-cigarette use</t>
         </is>
       </c>
       <c r="C429" s="2" t="inlineStr"/>
@@ -22394,11 +22412,7 @@
         </is>
       </c>
       <c r="Q429" s="2" t="inlineStr"/>
-      <c r="R429" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="R429" s="2" t="inlineStr"/>
       <c r="S429" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -22406,6 +22420,51 @@
       </c>
       <c r="T429" s="2" t="inlineStr"/>
       <c r="U429" s="2" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="inlineStr"/>
+      <c r="B430" s="2" t="inlineStr">
+        <is>
+          <t>youth uptake of e-cigarettes</t>
+        </is>
+      </c>
+      <c r="C430" s="2" t="inlineStr"/>
+      <c r="D430" s="2" t="inlineStr"/>
+      <c r="E430" s="2" t="inlineStr"/>
+      <c r="F430" s="2" t="inlineStr"/>
+      <c r="G430" s="2" t="inlineStr"/>
+      <c r="H430" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I430" s="2" t="inlineStr"/>
+      <c r="J430" s="2" t="inlineStr"/>
+      <c r="K430" s="2" t="inlineStr"/>
+      <c r="L430" s="2" t="inlineStr"/>
+      <c r="M430" s="2" t="inlineStr"/>
+      <c r="N430" s="2" t="inlineStr"/>
+      <c r="O430" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P430" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q430" s="2" t="inlineStr"/>
+      <c r="R430" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="S430" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T430" s="2" t="inlineStr"/>
+      <c r="U430" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -3646,63 +3646,63 @@
       <c r="U55" s="7" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+      <c r="A56" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000632</t>
         </is>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" s="7" t="inlineStr">
         <is>
           <t>cannabis use</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" s="7" t="inlineStr">
         <is>
           <t>A cannabis use behaviour that involves ingesting cannabis.</t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr"/>
-      <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="D56" s="7" t="inlineStr"/>
+      <c r="E56" s="7" t="inlineStr"/>
+      <c r="F56" s="7" t="inlineStr">
         <is>
           <t>product use behaviour</t>
         </is>
       </c>
-      <c r="G56" s="2" t="inlineStr"/>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="inlineStr"/>
-      <c r="J56" s="2" t="inlineStr"/>
-      <c r="K56" s="2" t="inlineStr"/>
-      <c r="L56" s="2" t="inlineStr"/>
-      <c r="M56" s="2" t="inlineStr"/>
-      <c r="N56" s="2" t="inlineStr"/>
-      <c r="O56" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P56" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q56" s="2" t="inlineStr"/>
-      <c r="R56" s="2" t="inlineStr">
+      <c r="G56" s="7" t="inlineStr"/>
+      <c r="H56" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I56" s="7" t="inlineStr"/>
+      <c r="J56" s="7" t="inlineStr"/>
+      <c r="K56" s="7" t="inlineStr"/>
+      <c r="L56" s="7" t="inlineStr"/>
+      <c r="M56" s="7" t="inlineStr"/>
+      <c r="N56" s="7" t="inlineStr"/>
+      <c r="O56" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P56" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q56" s="7" t="inlineStr"/>
+      <c r="R56" s="7" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="S56" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T56" s="2" t="inlineStr"/>
-      <c r="U56" s="2" t="inlineStr"/>
+      <c r="S56" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T56" s="7" t="inlineStr"/>
+      <c r="U56" s="7" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="7" t="inlineStr"/>
@@ -4750,138 +4750,138 @@
       <c r="U75" s="2" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="inlineStr">
+      <c r="A76" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000646</t>
         </is>
       </c>
-      <c r="B76" s="3" t="inlineStr">
+      <c r="B76" s="7" t="inlineStr">
         <is>
           <t>cigarette purchase behaviour</t>
         </is>
       </c>
-      <c r="C76" s="3" t="inlineStr">
+      <c r="C76" s="7" t="inlineStr">
         <is>
           <t>A product purchase behaviour in which the product is some cigarettes.</t>
         </is>
       </c>
-      <c r="D76" s="3" t="inlineStr">
+      <c r="D76" s="7" t="inlineStr">
         <is>
           <t>Buying cigarettes.</t>
         </is>
       </c>
-      <c r="E76" s="3" t="inlineStr"/>
-      <c r="F76" s="3" t="inlineStr">
+      <c r="E76" s="7" t="inlineStr"/>
+      <c r="F76" s="7" t="inlineStr">
         <is>
           <t>purchase behaviour</t>
         </is>
       </c>
-      <c r="G76" s="3" t="inlineStr">
+      <c r="G76" s="7" t="inlineStr">
         <is>
           <t>dependent continuant</t>
         </is>
       </c>
-      <c r="H76" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I76" s="3" t="inlineStr"/>
-      <c r="J76" s="3" t="inlineStr"/>
-      <c r="K76" s="3" t="inlineStr">
+      <c r="H76" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I76" s="7" t="inlineStr"/>
+      <c r="J76" s="7" t="inlineStr"/>
+      <c r="K76" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Tobacco purchase </t>
         </is>
       </c>
-      <c r="L76" s="3" t="inlineStr"/>
-      <c r="M76" s="3" t="inlineStr"/>
-      <c r="N76" s="3" t="inlineStr"/>
-      <c r="O76" s="3" t="n">
+      <c r="L76" s="7" t="inlineStr"/>
+      <c r="M76" s="7" t="inlineStr"/>
+      <c r="N76" s="7" t="inlineStr"/>
+      <c r="O76" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P76" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q76" s="3" t="inlineStr"/>
-      <c r="R76" s="3" t="inlineStr">
+      <c r="P76" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q76" s="7" t="inlineStr"/>
+      <c r="R76" s="7" t="inlineStr">
         <is>
           <t>SC; RW</t>
         </is>
       </c>
-      <c r="S76" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T76" s="3" t="inlineStr"/>
-      <c r="U76" s="3" t="inlineStr"/>
+      <c r="S76" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T76" s="7" t="inlineStr"/>
+      <c r="U76" s="7" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="inlineStr">
+      <c r="A77" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000640</t>
         </is>
       </c>
-      <c r="B77" s="3" t="inlineStr">
+      <c r="B77" s="7" t="inlineStr">
         <is>
           <t>cigarette smoking</t>
         </is>
       </c>
-      <c r="C77" s="3" t="inlineStr">
+      <c r="C77" s="7" t="inlineStr">
         <is>
           <t>A tobacco use behaviour pattern that involves ingesting smoke from a cigarette.</t>
         </is>
       </c>
-      <c r="D77" s="3" t="inlineStr"/>
-      <c r="E77" s="3" t="inlineStr"/>
-      <c r="F77" s="3" t="inlineStr">
+      <c r="D77" s="7" t="inlineStr"/>
+      <c r="E77" s="7" t="inlineStr"/>
+      <c r="F77" s="7" t="inlineStr">
         <is>
           <t>tobacco use behaviour pattern</t>
         </is>
       </c>
-      <c r="G77" s="3" t="inlineStr">
+      <c r="G77" s="7" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H77" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I77" s="3" t="inlineStr"/>
-      <c r="J77" s="3" t="inlineStr"/>
-      <c r="K77" s="3" t="inlineStr">
+      <c r="H77" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I77" s="7" t="inlineStr"/>
+      <c r="J77" s="7" t="inlineStr"/>
+      <c r="K77" s="7" t="inlineStr">
         <is>
           <t>Tobacco smoking</t>
         </is>
       </c>
-      <c r="L77" s="3" t="inlineStr"/>
-      <c r="M77" s="3" t="inlineStr"/>
-      <c r="N77" s="3" t="inlineStr"/>
-      <c r="O77" s="3" t="n">
+      <c r="L77" s="7" t="inlineStr"/>
+      <c r="M77" s="7" t="inlineStr"/>
+      <c r="N77" s="7" t="inlineStr"/>
+      <c r="O77" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P77" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q77" s="3" t="inlineStr"/>
-      <c r="R77" s="3" t="inlineStr">
+      <c r="P77" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q77" s="7" t="inlineStr"/>
+      <c r="R77" s="7" t="inlineStr">
         <is>
           <t>SC; RW</t>
         </is>
       </c>
-      <c r="S77" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T77" s="3" t="inlineStr"/>
-      <c r="U77" s="3" t="inlineStr"/>
+      <c r="S77" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T77" s="7" t="inlineStr"/>
+      <c r="U77" s="7" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
@@ -7368,69 +7368,69 @@
       <c r="U128" s="7" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="inlineStr">
+      <c r="A129" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000660</t>
         </is>
       </c>
-      <c r="B129" s="3" t="inlineStr">
+      <c r="B129" s="7" t="inlineStr">
         <is>
           <t>dual cigarette and smokeless tobacco use behaviour pattern</t>
         </is>
       </c>
-      <c r="C129" s="3" t="inlineStr">
+      <c r="C129" s="7" t="inlineStr">
         <is>
           <t>A tobacco use behaviour pattern that involves the use of combustible tobacco and smokeless tobacco.</t>
         </is>
       </c>
-      <c r="D129" s="3" t="inlineStr"/>
-      <c r="E129" s="3" t="inlineStr"/>
-      <c r="F129" s="3" t="inlineStr">
+      <c r="D129" s="7" t="inlineStr"/>
+      <c r="E129" s="7" t="inlineStr"/>
+      <c r="F129" s="7" t="inlineStr">
         <is>
           <t>tobacco use behaviour pattern</t>
         </is>
       </c>
-      <c r="G129" s="3" t="inlineStr">
+      <c r="G129" s="7" t="inlineStr">
         <is>
           <t>process aggregate</t>
         </is>
       </c>
-      <c r="H129" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I129" s="3" t="inlineStr"/>
-      <c r="J129" s="3" t="inlineStr"/>
-      <c r="K129" s="3" t="inlineStr">
+      <c r="H129" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I129" s="7" t="inlineStr"/>
+      <c r="J129" s="7" t="inlineStr"/>
+      <c r="K129" s="7" t="inlineStr">
         <is>
           <t>Dual use</t>
         </is>
       </c>
-      <c r="L129" s="3" t="inlineStr"/>
-      <c r="M129" s="3" t="inlineStr"/>
-      <c r="N129" s="3" t="inlineStr"/>
-      <c r="O129" s="3" t="n">
+      <c r="L129" s="7" t="inlineStr"/>
+      <c r="M129" s="7" t="inlineStr"/>
+      <c r="N129" s="7" t="inlineStr"/>
+      <c r="O129" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P129" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q129" s="3" t="inlineStr"/>
-      <c r="R129" s="3" t="inlineStr">
+      <c r="P129" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q129" s="7" t="inlineStr"/>
+      <c r="R129" s="7" t="inlineStr">
         <is>
           <t>SC; RW</t>
         </is>
       </c>
-      <c r="S129" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T129" s="3" t="inlineStr"/>
-      <c r="U129" s="3" t="inlineStr"/>
+      <c r="S129" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T129" s="7" t="inlineStr"/>
+      <c r="U129" s="7" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
@@ -8248,130 +8248,130 @@
       <c r="U142" s="7" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="inlineStr">
+      <c r="A143" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000674</t>
         </is>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" s="7" t="inlineStr">
         <is>
           <t>e-cigarette puff</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C143" s="7" t="inlineStr">
         <is>
           <t>A behavioural episode that involves the act of drawing aerosol produced by an e-cigarette into the body.</t>
         </is>
       </c>
-      <c r="D143" s="2" t="inlineStr"/>
-      <c r="E143" s="2" t="inlineStr"/>
-      <c r="F143" s="2" t="inlineStr">
+      <c r="D143" s="7" t="inlineStr"/>
+      <c r="E143" s="7" t="inlineStr"/>
+      <c r="F143" s="7" t="inlineStr">
         <is>
           <t>e-cigarette use</t>
         </is>
       </c>
-      <c r="G143" s="2" t="inlineStr">
+      <c r="G143" s="7" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="inlineStr"/>
-      <c r="J143" s="2" t="inlineStr"/>
-      <c r="K143" s="2" t="inlineStr"/>
-      <c r="L143" s="2" t="inlineStr"/>
-      <c r="M143" s="2" t="inlineStr"/>
-      <c r="N143" s="2" t="inlineStr"/>
-      <c r="O143" s="2" t="n">
+      <c r="H143" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I143" s="7" t="inlineStr"/>
+      <c r="J143" s="7" t="inlineStr"/>
+      <c r="K143" s="7" t="inlineStr"/>
+      <c r="L143" s="7" t="inlineStr"/>
+      <c r="M143" s="7" t="inlineStr"/>
+      <c r="N143" s="7" t="inlineStr"/>
+      <c r="O143" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P143" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q143" s="2" t="inlineStr"/>
-      <c r="R143" s="2" t="inlineStr">
+      <c r="P143" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q143" s="7" t="inlineStr"/>
+      <c r="R143" s="7" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="S143" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T143" s="2" t="inlineStr"/>
-      <c r="U143" s="2" t="inlineStr"/>
+      <c r="S143" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T143" s="7" t="inlineStr"/>
+      <c r="U143" s="7" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="inlineStr">
+      <c r="A144" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000673</t>
         </is>
       </c>
-      <c r="B144" s="3" t="inlineStr">
+      <c r="B144" s="7" t="inlineStr">
         <is>
           <t>e-cigarette purchase behaviour</t>
         </is>
       </c>
-      <c r="C144" s="3" t="inlineStr">
+      <c r="C144" s="7" t="inlineStr">
         <is>
           <t>A product purchase in which the product is an e-cigarette.</t>
         </is>
       </c>
-      <c r="D144" s="3" t="inlineStr"/>
-      <c r="E144" s="3" t="inlineStr"/>
-      <c r="F144" s="3" t="inlineStr">
+      <c r="D144" s="7" t="inlineStr"/>
+      <c r="E144" s="7" t="inlineStr"/>
+      <c r="F144" s="7" t="inlineStr">
         <is>
           <t>purchase behaviour</t>
         </is>
       </c>
-      <c r="G144" s="3" t="inlineStr">
+      <c r="G144" s="7" t="inlineStr">
         <is>
           <t>dependent continuant</t>
         </is>
       </c>
-      <c r="H144" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I144" s="3" t="inlineStr"/>
-      <c r="J144" s="3" t="inlineStr"/>
-      <c r="K144" s="3" t="inlineStr">
+      <c r="H144" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I144" s="7" t="inlineStr"/>
+      <c r="J144" s="7" t="inlineStr"/>
+      <c r="K144" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">E-cigarette purchase </t>
         </is>
       </c>
-      <c r="L144" s="3" t="inlineStr"/>
-      <c r="M144" s="3" t="inlineStr"/>
-      <c r="N144" s="3" t="inlineStr"/>
-      <c r="O144" s="3" t="n">
+      <c r="L144" s="7" t="inlineStr"/>
+      <c r="M144" s="7" t="inlineStr"/>
+      <c r="N144" s="7" t="inlineStr"/>
+      <c r="O144" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P144" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q144" s="3" t="inlineStr"/>
-      <c r="R144" s="3" t="inlineStr">
+      <c r="P144" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q144" s="7" t="inlineStr"/>
+      <c r="R144" s="7" t="inlineStr">
         <is>
           <t>SC; RW</t>
         </is>
       </c>
-      <c r="S144" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T144" s="3" t="inlineStr"/>
-      <c r="U144" s="3" t="inlineStr"/>
+      <c r="S144" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T144" s="7" t="inlineStr"/>
+      <c r="U144" s="7" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="7" t="inlineStr">
@@ -9191,73 +9191,73 @@
       <c r="U159" s="7" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="inlineStr">
+      <c r="A160" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000677</t>
         </is>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="B160" s="7" t="inlineStr">
         <is>
           <t>experimentation with e-cigarettes</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
+      <c r="C160" s="7" t="inlineStr">
         <is>
           <t>An e-cigarette use behaviour which indicates the trial use of e-cigarette devices.</t>
         </is>
       </c>
-      <c r="D160" s="2" t="inlineStr">
+      <c r="D160" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Trial use of an e-cigarette without frequent or committed usage. </t>
         </is>
       </c>
-      <c r="E160" s="2" t="inlineStr"/>
-      <c r="F160" s="2" t="inlineStr">
+      <c r="E160" s="7" t="inlineStr"/>
+      <c r="F160" s="7" t="inlineStr">
         <is>
           <t>e-cigarette use</t>
         </is>
       </c>
-      <c r="G160" s="2" t="inlineStr">
+      <c r="G160" s="7" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H160" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I160" s="2" t="inlineStr"/>
-      <c r="J160" s="2" t="inlineStr"/>
-      <c r="K160" s="2" t="inlineStr"/>
-      <c r="L160" s="2" t="inlineStr"/>
-      <c r="M160" s="2" t="inlineStr">
+      <c r="H160" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I160" s="7" t="inlineStr"/>
+      <c r="J160" s="7" t="inlineStr"/>
+      <c r="K160" s="7" t="inlineStr"/>
+      <c r="L160" s="7" t="inlineStr"/>
+      <c r="M160" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">People may experiment with when they first encounter e-cigarettes but not all will go on to become regular users. </t>
         </is>
       </c>
-      <c r="N160" s="2" t="inlineStr"/>
-      <c r="O160" s="2" t="n">
+      <c r="N160" s="7" t="inlineStr"/>
+      <c r="O160" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P160" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q160" s="2" t="inlineStr"/>
-      <c r="R160" s="2" t="inlineStr">
+      <c r="P160" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q160" s="7" t="inlineStr"/>
+      <c r="R160" s="7" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="S160" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T160" s="2" t="inlineStr"/>
-      <c r="U160" s="2" t="inlineStr"/>
+      <c r="S160" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T160" s="7" t="inlineStr"/>
+      <c r="U160" s="7" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="7" t="inlineStr"/>
@@ -10753,189 +10753,189 @@
       <c r="U189" s="7" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="inlineStr">
+      <c r="A190" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000981</t>
         </is>
       </c>
-      <c r="B190" s="2" t="inlineStr">
+      <c r="B190" s="7" t="inlineStr">
         <is>
           <t>heated tobacco containing product use</t>
         </is>
       </c>
-      <c r="C190" s="2" t="inlineStr">
+      <c r="C190" s="7" t="inlineStr">
         <is>
           <t>A tobacco use behaviour that involves using a heated tobacco containing product.</t>
         </is>
       </c>
-      <c r="D190" s="2" t="inlineStr"/>
-      <c r="E190" s="2" t="inlineStr"/>
-      <c r="F190" s="2" t="inlineStr">
+      <c r="D190" s="7" t="inlineStr"/>
+      <c r="E190" s="7" t="inlineStr"/>
+      <c r="F190" s="7" t="inlineStr">
         <is>
           <t>product use behaviour</t>
         </is>
       </c>
-      <c r="G190" s="2" t="inlineStr"/>
-      <c r="H190" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I190" s="2" t="inlineStr"/>
-      <c r="J190" s="2" t="inlineStr"/>
-      <c r="K190" s="2" t="inlineStr"/>
-      <c r="L190" s="2" t="inlineStr"/>
-      <c r="M190" s="2" t="inlineStr"/>
-      <c r="N190" s="2" t="inlineStr"/>
-      <c r="O190" s="2" t="n">
+      <c r="G190" s="7" t="inlineStr"/>
+      <c r="H190" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I190" s="7" t="inlineStr"/>
+      <c r="J190" s="7" t="inlineStr"/>
+      <c r="K190" s="7" t="inlineStr"/>
+      <c r="L190" s="7" t="inlineStr"/>
+      <c r="M190" s="7" t="inlineStr"/>
+      <c r="N190" s="7" t="inlineStr"/>
+      <c r="O190" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P190" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q190" s="2" t="inlineStr"/>
-      <c r="R190" s="2" t="inlineStr">
+      <c r="P190" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q190" s="7" t="inlineStr"/>
+      <c r="R190" s="7" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="S190" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T190" s="2" t="inlineStr"/>
-      <c r="U190" s="2" t="inlineStr"/>
+      <c r="S190" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T190" s="7" t="inlineStr"/>
+      <c r="U190" s="7" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" s="3" t="inlineStr">
+      <c r="A191" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000687</t>
         </is>
       </c>
-      <c r="B191" s="3" t="inlineStr">
+      <c r="B191" s="7" t="inlineStr">
         <is>
           <t>heated tobacco-containing product purchase behaviour</t>
         </is>
       </c>
-      <c r="C191" s="3" t="inlineStr">
+      <c r="C191" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">A product purchase in which the product is a heated tobacco containing product. </t>
         </is>
       </c>
-      <c r="D191" s="3" t="inlineStr"/>
-      <c r="E191" s="3" t="inlineStr"/>
-      <c r="F191" s="3" t="inlineStr">
+      <c r="D191" s="7" t="inlineStr"/>
+      <c r="E191" s="7" t="inlineStr"/>
+      <c r="F191" s="7" t="inlineStr">
         <is>
           <t>purchase behaviour</t>
         </is>
       </c>
-      <c r="G191" s="3" t="inlineStr">
+      <c r="G191" s="7" t="inlineStr">
         <is>
           <t>dependent continuant</t>
         </is>
       </c>
-      <c r="H191" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I191" s="3" t="inlineStr"/>
-      <c r="J191" s="3" t="inlineStr"/>
-      <c r="K191" s="3" t="inlineStr">
+      <c r="H191" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I191" s="7" t="inlineStr"/>
+      <c r="J191" s="7" t="inlineStr"/>
+      <c r="K191" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Tobacco purchase </t>
         </is>
       </c>
-      <c r="L191" s="3" t="inlineStr"/>
-      <c r="M191" s="3" t="inlineStr"/>
-      <c r="N191" s="3" t="inlineStr"/>
-      <c r="O191" s="3" t="n">
+      <c r="L191" s="7" t="inlineStr"/>
+      <c r="M191" s="7" t="inlineStr"/>
+      <c r="N191" s="7" t="inlineStr"/>
+      <c r="O191" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P191" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q191" s="3" t="inlineStr"/>
-      <c r="R191" s="3" t="inlineStr">
+      <c r="P191" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q191" s="7" t="inlineStr"/>
+      <c r="R191" s="7" t="inlineStr">
         <is>
           <t>SC; RW</t>
         </is>
       </c>
-      <c r="S191" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T191" s="3" t="inlineStr"/>
-      <c r="U191" s="3" t="inlineStr"/>
+      <c r="S191" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T191" s="7" t="inlineStr"/>
+      <c r="U191" s="7" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="A192" s="3" t="inlineStr">
+      <c r="A192" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000679</t>
         </is>
       </c>
-      <c r="B192" s="3" t="inlineStr">
+      <c r="B192" s="7" t="inlineStr">
         <is>
           <t>heated tobacco-containing product use</t>
         </is>
       </c>
-      <c r="C192" s="3" t="inlineStr">
+      <c r="C192" s="7" t="inlineStr">
         <is>
           <t>A tobacco use behaviour pattern that is use of a heated tobacco-containing product.</t>
         </is>
       </c>
-      <c r="D192" s="3" t="inlineStr"/>
-      <c r="E192" s="3" t="inlineStr"/>
-      <c r="F192" s="3" t="inlineStr">
+      <c r="D192" s="7" t="inlineStr"/>
+      <c r="E192" s="7" t="inlineStr"/>
+      <c r="F192" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">tobacco use behaviour pattern </t>
         </is>
       </c>
-      <c r="G192" s="3" t="inlineStr">
+      <c r="G192" s="7" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H192" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I192" s="3" t="inlineStr"/>
-      <c r="J192" s="3" t="inlineStr"/>
-      <c r="K192" s="3" t="inlineStr"/>
-      <c r="L192" s="3" t="inlineStr"/>
-      <c r="M192" s="3" t="inlineStr"/>
-      <c r="N192" s="3" t="inlineStr"/>
-      <c r="O192" s="3" t="inlineStr">
+      <c r="H192" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I192" s="7" t="inlineStr"/>
+      <c r="J192" s="7" t="inlineStr"/>
+      <c r="K192" s="7" t="inlineStr"/>
+      <c r="L192" s="7" t="inlineStr"/>
+      <c r="M192" s="7" t="inlineStr"/>
+      <c r="N192" s="7" t="inlineStr"/>
+      <c r="O192" s="7" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="P192" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q192" s="3" t="inlineStr"/>
-      <c r="R192" s="3" t="inlineStr">
+      <c r="P192" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q192" s="7" t="inlineStr"/>
+      <c r="R192" s="7" t="inlineStr">
         <is>
           <t>KS; RW</t>
         </is>
       </c>
-      <c r="S192" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T192" s="3" t="inlineStr"/>
-      <c r="U192" s="3" t="inlineStr"/>
+      <c r="S192" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T192" s="7" t="inlineStr"/>
+      <c r="U192" s="7" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
@@ -19264,69 +19264,69 @@
       <c r="U365" s="7" t="inlineStr"/>
     </row>
     <row r="366">
-      <c r="A366" s="3" t="inlineStr">
+      <c r="A366" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000708</t>
         </is>
       </c>
-      <c r="B366" s="3" t="inlineStr">
+      <c r="B366" s="7" t="inlineStr">
         <is>
           <t>smokeless tobacco purchase behaviour</t>
         </is>
       </c>
-      <c r="C366" s="3" t="inlineStr">
+      <c r="C366" s="7" t="inlineStr">
         <is>
           <t>A product purchase in which the product is smokeless tobacco.</t>
         </is>
       </c>
-      <c r="D366" s="3" t="inlineStr"/>
-      <c r="E366" s="3" t="inlineStr"/>
-      <c r="F366" s="3" t="inlineStr">
+      <c r="D366" s="7" t="inlineStr"/>
+      <c r="E366" s="7" t="inlineStr"/>
+      <c r="F366" s="7" t="inlineStr">
         <is>
           <t>purchase behaviour</t>
         </is>
       </c>
-      <c r="G366" s="3" t="inlineStr">
+      <c r="G366" s="7" t="inlineStr">
         <is>
           <t>dependent continuant</t>
         </is>
       </c>
-      <c r="H366" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I366" s="3" t="inlineStr"/>
-      <c r="J366" s="3" t="inlineStr"/>
-      <c r="K366" s="3" t="inlineStr">
+      <c r="H366" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I366" s="7" t="inlineStr"/>
+      <c r="J366" s="7" t="inlineStr"/>
+      <c r="K366" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Tobacco purchase </t>
         </is>
       </c>
-      <c r="L366" s="3" t="inlineStr"/>
-      <c r="M366" s="3" t="inlineStr"/>
-      <c r="N366" s="3" t="inlineStr"/>
-      <c r="O366" s="3" t="n">
+      <c r="L366" s="7" t="inlineStr"/>
+      <c r="M366" s="7" t="inlineStr"/>
+      <c r="N366" s="7" t="inlineStr"/>
+      <c r="O366" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P366" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q366" s="3" t="inlineStr"/>
-      <c r="R366" s="3" t="inlineStr">
+      <c r="P366" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q366" s="7" t="inlineStr"/>
+      <c r="R366" s="7" t="inlineStr">
         <is>
           <t>SC; RW</t>
         </is>
       </c>
-      <c r="S366" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T366" s="3" t="inlineStr"/>
-      <c r="U366" s="3" t="inlineStr"/>
+      <c r="S366" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T366" s="7" t="inlineStr"/>
+      <c r="U366" s="7" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="7" t="inlineStr">
@@ -19457,69 +19457,69 @@
       <c r="U368" s="3" t="inlineStr"/>
     </row>
     <row r="369">
-      <c r="A369" s="3" t="inlineStr">
+      <c r="A369" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000699</t>
         </is>
       </c>
-      <c r="B369" s="3" t="inlineStr">
+      <c r="B369" s="7" t="inlineStr">
         <is>
           <t>smokeless tobacco use behaviour pattern</t>
         </is>
       </c>
-      <c r="C369" s="3" t="inlineStr">
+      <c r="C369" s="7" t="inlineStr">
         <is>
           <t>A tobacco use behaviour pattern that involves the use of a smokeless tobacco-containing product.</t>
         </is>
       </c>
-      <c r="D369" s="3" t="inlineStr"/>
-      <c r="E369" s="3" t="inlineStr"/>
-      <c r="F369" s="3" t="inlineStr">
+      <c r="D369" s="7" t="inlineStr"/>
+      <c r="E369" s="7" t="inlineStr"/>
+      <c r="F369" s="7" t="inlineStr">
         <is>
           <t>tobacco use behaviour pattern</t>
         </is>
       </c>
-      <c r="G369" s="3" t="inlineStr">
+      <c r="G369" s="7" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H369" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I369" s="3" t="inlineStr"/>
-      <c r="J369" s="3" t="inlineStr"/>
-      <c r="K369" s="3" t="inlineStr">
+      <c r="H369" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I369" s="7" t="inlineStr"/>
+      <c r="J369" s="7" t="inlineStr"/>
+      <c r="K369" s="7" t="inlineStr">
         <is>
           <t>smokeless tobacco use</t>
         </is>
       </c>
-      <c r="L369" s="3" t="inlineStr"/>
-      <c r="M369" s="3" t="inlineStr"/>
-      <c r="N369" s="3" t="inlineStr"/>
-      <c r="O369" s="3" t="n">
+      <c r="L369" s="7" t="inlineStr"/>
+      <c r="M369" s="7" t="inlineStr"/>
+      <c r="N369" s="7" t="inlineStr"/>
+      <c r="O369" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P369" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q369" s="3" t="inlineStr"/>
-      <c r="R369" s="3" t="inlineStr">
+      <c r="P369" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q369" s="7" t="inlineStr"/>
+      <c r="R369" s="7" t="inlineStr">
         <is>
           <t>SC; RW</t>
         </is>
       </c>
-      <c r="S369" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T369" s="3" t="inlineStr"/>
-      <c r="U369" s="3" t="inlineStr"/>
+      <c r="S369" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T369" s="7" t="inlineStr"/>
+      <c r="U369" s="7" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="2" t="inlineStr">

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -12643,73 +12643,73 @@
       <c r="U228" s="7" t="inlineStr"/>
     </row>
     <row r="229">
-      <c r="A229" s="3" t="inlineStr">
+      <c r="A229" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000710</t>
         </is>
       </c>
-      <c r="B229" s="3" t="inlineStr">
+      <c r="B229" s="7" t="inlineStr">
         <is>
           <t>non-daily smokeless tobacco use</t>
         </is>
       </c>
-      <c r="C229" s="3" t="inlineStr">
+      <c r="C229" s="7" t="inlineStr">
         <is>
           <t>A smokeless tobacco use behaviour pattern that involves not using smokeless tobacco every day.</t>
         </is>
       </c>
-      <c r="D229" s="3" t="inlineStr"/>
-      <c r="E229" s="3" t="inlineStr"/>
-      <c r="F229" s="3" t="inlineStr">
+      <c r="D229" s="7" t="inlineStr"/>
+      <c r="E229" s="7" t="inlineStr"/>
+      <c r="F229" s="7" t="inlineStr">
         <is>
           <t>smokeless tobacco use behaviour pattern</t>
         </is>
       </c>
-      <c r="G229" s="3" t="inlineStr">
+      <c r="G229" s="7" t="inlineStr">
         <is>
           <t>process aggregate</t>
         </is>
       </c>
-      <c r="H229" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I229" s="3" t="inlineStr"/>
-      <c r="J229" s="3" t="inlineStr"/>
-      <c r="K229" s="3" t="inlineStr">
+      <c r="H229" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I229" s="7" t="inlineStr"/>
+      <c r="J229" s="7" t="inlineStr"/>
+      <c r="K229" s="7" t="inlineStr">
         <is>
           <t>occasional smokeless tobacco use</t>
         </is>
       </c>
-      <c r="L229" s="3" t="inlineStr"/>
-      <c r="M229" s="3" t="inlineStr">
+      <c r="L229" s="7" t="inlineStr"/>
+      <c r="M229" s="7" t="inlineStr">
         <is>
           <t>The mean frequency of use could be &gt;1 per day but there are days when smokeless tobacco is not used.</t>
         </is>
       </c>
-      <c r="N229" s="3" t="inlineStr"/>
-      <c r="O229" s="3" t="n">
+      <c r="N229" s="7" t="inlineStr"/>
+      <c r="O229" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P229" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q229" s="3" t="inlineStr"/>
-      <c r="R229" s="3" t="inlineStr">
+      <c r="P229" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q229" s="7" t="inlineStr"/>
+      <c r="R229" s="7" t="inlineStr">
         <is>
           <t>SC; RW</t>
         </is>
       </c>
-      <c r="S229" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T229" s="3" t="inlineStr"/>
-      <c r="U229" s="3" t="inlineStr"/>
+      <c r="S229" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T229" s="7" t="inlineStr"/>
+      <c r="U229" s="7" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="7" t="inlineStr"/>

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -1541,90 +1541,90 @@
       <c r="U16" s="7" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr"/>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" s="7" t="inlineStr"/>
+      <c r="B17" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">adolescent e-cigarette use </t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use behaviour by an adolescent. </t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr"/>
-      <c r="R17" s="2" t="inlineStr"/>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr"/>
-      <c r="U17" s="2" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+      <c r="K17" s="7" t="inlineStr"/>
+      <c r="L17" s="7" t="inlineStr"/>
+      <c r="M17" s="7" t="inlineStr"/>
+      <c r="N17" s="7" t="inlineStr"/>
+      <c r="O17" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P17" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" s="7" t="inlineStr"/>
+      <c r="R17" s="7" t="inlineStr"/>
+      <c r="S17" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T17" s="7" t="inlineStr"/>
+      <c r="U17" s="7" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr"/>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" s="7" t="inlineStr"/>
+      <c r="B18" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">adolescent smoking </t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use behaviour by an adolescent. </t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr"/>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+      <c r="K18" s="7" t="inlineStr"/>
+      <c r="L18" s="7" t="inlineStr"/>
+      <c r="M18" s="7" t="inlineStr"/>
+      <c r="N18" s="7" t="inlineStr"/>
+      <c r="O18" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P18" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" s="7" t="inlineStr"/>
+      <c r="R18" s="7" t="inlineStr"/>
+      <c r="S18" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T18" s="7" t="inlineStr"/>
+      <c r="U18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -4189,73 +4189,73 @@
       <c r="U66" s="7" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
+      <c r="A67" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000649</t>
         </is>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B67" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">cigarette cessation </t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C67" s="7" t="inlineStr">
         <is>
           <t>A tobacco use pattern which involves the cessation of smoking cigarettes.</t>
         </is>
       </c>
-      <c r="D67" s="2" t="inlineStr"/>
-      <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr">
+      <c r="D67" s="7" t="inlineStr"/>
+      <c r="E67" s="7" t="inlineStr"/>
+      <c r="F67" s="7" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G67" s="2" t="inlineStr">
+      <c r="G67" s="7" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I67" s="2" t="inlineStr"/>
-      <c r="J67" s="2" t="inlineStr"/>
-      <c r="K67" s="2" t="inlineStr">
+      <c r="H67" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I67" s="7" t="inlineStr"/>
+      <c r="J67" s="7" t="inlineStr"/>
+      <c r="K67" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Smoking cessation; tobacco cessation  </t>
         </is>
       </c>
-      <c r="L67" s="2" t="inlineStr"/>
-      <c r="M67" s="2" t="inlineStr">
+      <c r="L67" s="7" t="inlineStr"/>
+      <c r="M67" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">This represents smoking cigarette cessation only and is deliberately separate from tobacco cessation as other types of tobacco smoking may continue e.g., cannabis and tobacco use. </t>
         </is>
       </c>
-      <c r="N67" s="2" t="inlineStr"/>
-      <c r="O67" s="2" t="n">
+      <c r="N67" s="7" t="inlineStr"/>
+      <c r="O67" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P67" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q67" s="2" t="inlineStr"/>
-      <c r="R67" s="2" t="inlineStr">
+      <c r="P67" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q67" s="7" t="inlineStr"/>
+      <c r="R67" s="7" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="S67" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T67" s="2" t="inlineStr"/>
-      <c r="U67" s="2" t="inlineStr"/>
+      <c r="S67" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T67" s="7" t="inlineStr"/>
+      <c r="U67" s="7" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="7" t="inlineStr">
@@ -7675,77 +7675,77 @@
       <c r="U133" s="2" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="inlineStr">
+      <c r="A134" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000128</t>
         </is>
       </c>
-      <c r="B134" s="3" t="inlineStr">
+      <c r="B134" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">duration of e-cigarette use </t>
         </is>
       </c>
-      <c r="C134" s="3" t="inlineStr">
+      <c r="C134" s="7" t="inlineStr">
         <is>
           <t>A temporal region occupied by an e-cigarette use behaviour pattern.</t>
         </is>
       </c>
-      <c r="D134" s="3" t="inlineStr"/>
-      <c r="E134" s="3" t="inlineStr"/>
-      <c r="F134" s="3" t="inlineStr">
+      <c r="D134" s="7" t="inlineStr"/>
+      <c r="E134" s="7" t="inlineStr"/>
+      <c r="F134" s="7" t="inlineStr">
         <is>
           <t>behaviour pattern duration</t>
         </is>
       </c>
-      <c r="G134" s="3" t="inlineStr"/>
-      <c r="H134" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I134" s="3" t="inlineStr"/>
-      <c r="J134" s="3" t="inlineStr">
+      <c r="G134" s="7" t="inlineStr"/>
+      <c r="H134" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I134" s="7" t="inlineStr"/>
+      <c r="J134" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">This duration relates to a whole behaviour pattern. </t>
         </is>
       </c>
-      <c r="K134" s="3" t="inlineStr">
+      <c r="K134" s="7" t="inlineStr">
         <is>
           <t>E-cigarette use duration</t>
         </is>
       </c>
-      <c r="L134" s="3" t="inlineStr"/>
-      <c r="M134" s="3" t="inlineStr">
+      <c r="L134" s="7" t="inlineStr"/>
+      <c r="M134" s="7" t="inlineStr">
         <is>
           <t>This refers to the aggregate of use episodes in a person's history not a single e-cigarette use episode. That is covered by 'Duration of e-cigarette use episode'.</t>
         </is>
       </c>
-      <c r="N134" s="3" t="inlineStr">
+      <c r="N134" s="7" t="inlineStr">
         <is>
           <t>A person uses e-cigarettes for 3 years.</t>
         </is>
       </c>
-      <c r="O134" s="3" t="n">
+      <c r="O134" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P134" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q134" s="3" t="inlineStr"/>
-      <c r="R134" s="3" t="inlineStr">
+      <c r="P134" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q134" s="7" t="inlineStr"/>
+      <c r="R134" s="7" t="inlineStr">
         <is>
           <t>All; RW</t>
         </is>
       </c>
-      <c r="S134" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T134" s="3" t="inlineStr"/>
-      <c r="U134" s="3" t="inlineStr"/>
+      <c r="S134" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T134" s="7" t="inlineStr"/>
+      <c r="U134" s="7" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="7" t="inlineStr">
@@ -9861,47 +9861,47 @@
       <c r="U173" s="2" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="inlineStr"/>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="A174" s="7" t="inlineStr"/>
+      <c r="B174" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">habitual use of a </t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr"/>
-      <c r="D174" s="2" t="inlineStr"/>
-      <c r="E174" s="2" t="inlineStr"/>
-      <c r="F174" s="2" t="inlineStr"/>
-      <c r="G174" s="2" t="inlineStr"/>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="inlineStr"/>
-      <c r="J174" s="2" t="inlineStr"/>
-      <c r="K174" s="2" t="inlineStr"/>
-      <c r="L174" s="2" t="inlineStr"/>
-      <c r="M174" s="2" t="inlineStr"/>
-      <c r="N174" s="2" t="inlineStr"/>
-      <c r="O174" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P174" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q174" s="2" t="inlineStr"/>
-      <c r="R174" s="2" t="inlineStr"/>
-      <c r="S174" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T174" s="2" t="inlineStr"/>
-      <c r="U174" s="2" t="inlineStr"/>
+      <c r="C174" s="7" t="inlineStr"/>
+      <c r="D174" s="7" t="inlineStr"/>
+      <c r="E174" s="7" t="inlineStr"/>
+      <c r="F174" s="7" t="inlineStr"/>
+      <c r="G174" s="7" t="inlineStr"/>
+      <c r="H174" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I174" s="7" t="inlineStr"/>
+      <c r="J174" s="7" t="inlineStr"/>
+      <c r="K174" s="7" t="inlineStr"/>
+      <c r="L174" s="7" t="inlineStr"/>
+      <c r="M174" s="7" t="inlineStr"/>
+      <c r="N174" s="7" t="inlineStr"/>
+      <c r="O174" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P174" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q174" s="7" t="inlineStr"/>
+      <c r="R174" s="7" t="inlineStr"/>
+      <c r="S174" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T174" s="7" t="inlineStr"/>
+      <c r="U174" s="7" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="7" t="inlineStr"/>

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -688,65 +688,65 @@
       <c r="U3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000102</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>abrupt smoking cessation</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>Smoking cessation in which a smoker goes from his or her usual level of cigarette consumption to no use of cigarette within a day.</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr"/>
+      <c r="E4" s="7" t="inlineStr"/>
+      <c r="F4" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">cigarette cessation </t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="7" t="inlineStr">
         <is>
           <t>Occurrent</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="n">
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I4" s="7" t="inlineStr"/>
+      <c r="J4" s="7" t="inlineStr"/>
+      <c r="K4" s="7" t="inlineStr"/>
+      <c r="L4" s="7" t="inlineStr"/>
+      <c r="M4" s="7" t="inlineStr"/>
+      <c r="N4" s="7" t="inlineStr"/>
+      <c r="O4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr"/>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="P4" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" s="7" t="inlineStr"/>
+      <c r="R4" s="7" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr"/>
-      <c r="U4" s="2" t="inlineStr"/>
+      <c r="S4" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T4" s="7" t="inlineStr"/>
+      <c r="U4" s="7" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -942,65 +942,65 @@
       <c r="U7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000106</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="7" t="inlineStr">
         <is>
           <t>accidental smoking cessation</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr">
         <is>
           <t>Smoking cessation that occurs without a smoker having an intention to stop smoking.</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">cigarette cessation </t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="n">
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+      <c r="K8" s="7" t="inlineStr"/>
+      <c r="L8" s="7" t="inlineStr"/>
+      <c r="M8" s="7" t="inlineStr"/>
+      <c r="N8" s="7" t="inlineStr"/>
+      <c r="O8" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr"/>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="P8" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" s="7" t="inlineStr"/>
+      <c r="R8" s="7" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="inlineStr"/>
-      <c r="U8" s="2" t="inlineStr"/>
+      <c r="S8" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T8" s="7" t="inlineStr"/>
+      <c r="U8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -9710,61 +9710,61 @@
       <c r="U170" s="7" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="inlineStr">
+      <c r="A171" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000678</t>
         </is>
       </c>
-      <c r="B171" s="2" t="inlineStr">
+      <c r="B171" s="7" t="inlineStr">
         <is>
           <t>gradual smoking cessation</t>
         </is>
       </c>
-      <c r="C171" s="2" t="inlineStr">
+      <c r="C171" s="7" t="inlineStr">
         <is>
           <t>Smoking cessation in which a smoker goes from his or her usual level of cigarette consumption to no use of cigarette over a period of time.</t>
         </is>
       </c>
-      <c r="D171" s="2" t="inlineStr"/>
-      <c r="E171" s="2" t="inlineStr"/>
-      <c r="F171" s="2" t="inlineStr">
+      <c r="D171" s="7" t="inlineStr"/>
+      <c r="E171" s="7" t="inlineStr"/>
+      <c r="F171" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">cigarette cessation </t>
         </is>
       </c>
-      <c r="G171" s="2" t="inlineStr"/>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="inlineStr"/>
-      <c r="J171" s="2" t="inlineStr"/>
-      <c r="K171" s="2" t="inlineStr"/>
-      <c r="L171" s="2" t="inlineStr"/>
-      <c r="M171" s="2" t="inlineStr"/>
-      <c r="N171" s="2" t="inlineStr"/>
-      <c r="O171" s="2" t="n">
+      <c r="G171" s="7" t="inlineStr"/>
+      <c r="H171" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I171" s="7" t="inlineStr"/>
+      <c r="J171" s="7" t="inlineStr"/>
+      <c r="K171" s="7" t="inlineStr"/>
+      <c r="L171" s="7" t="inlineStr"/>
+      <c r="M171" s="7" t="inlineStr"/>
+      <c r="N171" s="7" t="inlineStr"/>
+      <c r="O171" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P171" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q171" s="2" t="inlineStr"/>
-      <c r="R171" s="2" t="inlineStr">
+      <c r="P171" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q171" s="7" t="inlineStr"/>
+      <c r="R171" s="7" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="S171" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T171" s="2" t="inlineStr"/>
-      <c r="U171" s="2" t="inlineStr"/>
+      <c r="S171" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T171" s="7" t="inlineStr"/>
+      <c r="U171" s="7" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="7" t="inlineStr"/>
@@ -15417,65 +15417,65 @@
       <c r="U284" s="2" t="inlineStr"/>
     </row>
     <row r="285">
-      <c r="A285" s="2" t="inlineStr">
+      <c r="A285" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000628</t>
         </is>
       </c>
-      <c r="B285" s="2" t="inlineStr">
+      <c r="B285" s="7" t="inlineStr">
         <is>
           <t>planned cigarette smoking quit attempt</t>
         </is>
       </c>
-      <c r="C285" s="2" t="inlineStr">
+      <c r="C285" s="7" t="inlineStr">
         <is>
           <t>A tobacco use behaviour where the person plans to quit smoking.</t>
         </is>
       </c>
-      <c r="D285" s="2" t="inlineStr"/>
-      <c r="E285" s="2" t="inlineStr"/>
-      <c r="F285" s="2" t="inlineStr">
+      <c r="D285" s="7" t="inlineStr"/>
+      <c r="E285" s="7" t="inlineStr"/>
+      <c r="F285" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">cigarette cessation </t>
         </is>
       </c>
-      <c r="G285" s="2" t="inlineStr">
+      <c r="G285" s="7" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="H285" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I285" s="2" t="inlineStr"/>
-      <c r="J285" s="2" t="inlineStr"/>
-      <c r="K285" s="2" t="inlineStr"/>
-      <c r="L285" s="2" t="inlineStr"/>
-      <c r="M285" s="2" t="inlineStr"/>
-      <c r="N285" s="2" t="inlineStr"/>
-      <c r="O285" s="2" t="n">
+      <c r="H285" s="7" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I285" s="7" t="inlineStr"/>
+      <c r="J285" s="7" t="inlineStr"/>
+      <c r="K285" s="7" t="inlineStr"/>
+      <c r="L285" s="7" t="inlineStr"/>
+      <c r="M285" s="7" t="inlineStr"/>
+      <c r="N285" s="7" t="inlineStr"/>
+      <c r="O285" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P285" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q285" s="2" t="inlineStr"/>
-      <c r="R285" s="2" t="inlineStr">
+      <c r="P285" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q285" s="7" t="inlineStr"/>
+      <c r="R285" s="7" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="S285" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T285" s="2" t="inlineStr"/>
-      <c r="U285" s="2" t="inlineStr"/>
+      <c r="S285" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T285" s="7" t="inlineStr"/>
+      <c r="U285" s="7" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
